--- a/tests/test1/d10/N, 0.5.xlsx
+++ b/tests/test1/d10/N, 0.5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,13 +532,13 @@
         <v>359.1179738270162</v>
       </c>
       <c r="F2" t="n">
-        <v>9.10987327787665</v>
+        <v>9.109873277876099</v>
       </c>
       <c r="G2" t="n">
-        <v>97.02819419584304</v>
+        <v>97.02819419584273</v>
       </c>
       <c r="H2" t="n">
-        <v>10.68632087999164</v>
+        <v>10.68632087999074</v>
       </c>
       <c r="I2" t="n">
         <v>70.56128143157282</v>
@@ -547,16 +547,16 @@
         <v>15.80711097780685</v>
       </c>
       <c r="K2" t="n">
-        <v>70.30927924248242</v>
+        <v>70.3092792424823</v>
       </c>
       <c r="L2" t="n">
-        <v>14.6118770292648</v>
+        <v>14.61187702926368</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3809923038056763</v>
+        <v>0.3809923038057424</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4263678160961433</v>
+        <v>0.4263678160964924</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003315000000014834</v>
+        <v>0.0002428999999999348</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>359.1878273181684</v>
       </c>
       <c r="F3" t="n">
-        <v>9.003075853802381</v>
+        <v>9.003075853799615</v>
       </c>
       <c r="G3" t="n">
-        <v>72.95042068501306</v>
+        <v>72.95042068500887</v>
       </c>
       <c r="H3" t="n">
-        <v>10.75507473594588</v>
+        <v>10.75507473594182</v>
       </c>
       <c r="I3" t="n">
         <v>53.17592866838513</v>
@@ -599,16 +599,16 @@
         <v>18.32782196423818</v>
       </c>
       <c r="K3" t="n">
-        <v>52.76583781745465</v>
+        <v>52.76583781745349</v>
       </c>
       <c r="L3" t="n">
-        <v>16.80763673474392</v>
+        <v>16.80763673473804</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3603663198225313</v>
+        <v>0.3603663198227919</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4844351836591789</v>
+        <v>0.4844351836609743</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003356999999937216</v>
+        <v>0.000228399999997464</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.2083789237027319</v>
       </c>
       <c r="F4" t="n">
-        <v>9.733530412301128</v>
+        <v>9.733530412301546</v>
       </c>
       <c r="G4" t="n">
-        <v>81.38750974698037</v>
+        <v>81.38750974698425</v>
       </c>
       <c r="H4" t="n">
-        <v>2.937722640102473</v>
+        <v>2.937722640102616</v>
       </c>
       <c r="I4" t="n">
         <v>31.7678424560353</v>
@@ -651,16 +651,16 @@
         <v>9.618122158119826</v>
       </c>
       <c r="K4" t="n">
-        <v>31.53539010311184</v>
+        <v>31.53539010311227</v>
       </c>
       <c r="L4" t="n">
-        <v>8.96968268383438</v>
+        <v>8.969682683834664</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2748882780651239</v>
+        <v>0.2748882780651047</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5251112416964163</v>
+        <v>0.5251112416962502</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003199000000080332</v>
+        <v>0.000192899999998275</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>359.1056857632848</v>
       </c>
       <c r="F5" t="n">
-        <v>8.864495847282097</v>
+        <v>8.864495847282615</v>
       </c>
       <c r="G5" t="n">
-        <v>96.97677374314618</v>
+        <v>96.97677374314658</v>
       </c>
       <c r="H5" t="n">
-        <v>10.23830490501383</v>
+        <v>10.23830490501465</v>
       </c>
       <c r="I5" t="n">
         <v>70.66253786388728</v>
@@ -703,16 +703,16 @@
         <v>15.67687823027242</v>
       </c>
       <c r="K5" t="n">
-        <v>70.22811760942666</v>
+        <v>70.2281176094268</v>
       </c>
       <c r="L5" t="n">
-        <v>14.05571872951797</v>
+        <v>14.05571872951897</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4571118572308114</v>
+        <v>0.4571118572307397</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6089783317053161</v>
+        <v>0.6089783317049788</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003387000000003582</v>
+        <v>0.0001820999999999628</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9747191464285</v>
       </c>
       <c r="F6" t="n">
-        <v>9.759153356481866</v>
+        <v>9.759153356480228</v>
       </c>
       <c r="G6" t="n">
-        <v>174.2899245922622</v>
+        <v>174.289924592264</v>
       </c>
       <c r="H6" t="n">
-        <v>9.262757333002593</v>
+        <v>9.262757333000556</v>
       </c>
       <c r="I6" t="n">
         <v>149.7044734839228</v>
@@ -755,16 +755,16 @@
         <v>4.673171010711503</v>
       </c>
       <c r="K6" t="n">
-        <v>149.8863696777047</v>
+        <v>149.8863696777063</v>
       </c>
       <c r="L6" t="n">
-        <v>4.528578473704936</v>
+        <v>4.528578473703981</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2472991500971413</v>
+        <v>0.2472991500972715</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1821054637407888</v>
+        <v>0.1821054637420966</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003273000000092452</v>
+        <v>0.0001846999999983723</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.7793862565575</v>
       </c>
       <c r="F7" t="n">
-        <v>9.282127152701898</v>
+        <v>9.282127152702351</v>
       </c>
       <c r="G7" t="n">
-        <v>39.0822838533619</v>
+        <v>39.08228385336238</v>
       </c>
       <c r="H7" t="n">
-        <v>12.49597828678162</v>
+        <v>12.49597828678253</v>
       </c>
       <c r="I7" t="n">
         <v>30.28257116656484</v>
@@ -807,16 +807,16 @@
         <v>22.87529985576693</v>
       </c>
       <c r="K7" t="n">
-        <v>30.0457143065704</v>
+        <v>30.04571430657057</v>
       </c>
       <c r="L7" t="n">
-        <v>21.14720008350379</v>
+        <v>21.14720008350525</v>
       </c>
       <c r="M7" t="n">
-        <v>0.268639573957098</v>
+        <v>0.268639573957059</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3841517281242234</v>
+        <v>0.3841517281238864</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003311000000110198</v>
+        <v>0.0002464999999993722</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.1558918367437626</v>
       </c>
       <c r="F8" t="n">
-        <v>9.160250147971858</v>
+        <v>9.160250147966968</v>
       </c>
       <c r="G8" t="n">
-        <v>162.5432453893175</v>
+        <v>162.5432453893262</v>
       </c>
       <c r="H8" t="n">
-        <v>6.116395698167099</v>
+        <v>6.116395698162128</v>
       </c>
       <c r="I8" t="n">
         <v>97.61618025069936</v>
@@ -859,16 +859,16 @@
         <v>3.973338297383755</v>
       </c>
       <c r="K8" t="n">
-        <v>97.67459318696201</v>
+        <v>97.67459318696064</v>
       </c>
       <c r="L8" t="n">
-        <v>3.427881528940723</v>
+        <v>3.427881528937831</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2501028732208048</v>
+        <v>0.250102873221067</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5996049584686773</v>
+        <v>0.5996049584715444</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0009112000000044418</v>
+        <v>0.0001896999999999593</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>359.1547371480999</v>
       </c>
       <c r="F9" t="n">
-        <v>8.517806744206112</v>
+        <v>8.517806744205966</v>
       </c>
       <c r="G9" t="n">
-        <v>12.6139590579231</v>
+        <v>12.61395905792287</v>
       </c>
       <c r="H9" t="n">
-        <v>12.72951064997835</v>
+        <v>12.72951064997801</v>
       </c>
       <c r="I9" t="n">
         <v>12.15137765332865</v>
@@ -911,16 +911,16 @@
         <v>22.28974380606835</v>
       </c>
       <c r="K9" t="n">
-        <v>11.88915327508723</v>
+        <v>11.88915327508714</v>
       </c>
       <c r="L9" t="n">
-        <v>21.263378377918</v>
+        <v>21.26337837791745</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3346893154978464</v>
+        <v>0.3346893154978653</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2452808662749741</v>
+        <v>0.2452808662749733</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003978999999958432</v>
+        <v>0.0001876000000002875</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.9543976416901</v>
       </c>
       <c r="F10" t="n">
-        <v>9.350068895323609</v>
+        <v>9.35006889531862</v>
       </c>
       <c r="G10" t="n">
-        <v>157.3828297772731</v>
+        <v>157.3828297772748</v>
       </c>
       <c r="H10" t="n">
-        <v>13.48759731160502</v>
+        <v>13.48759731159626</v>
       </c>
       <c r="I10" t="n">
         <v>137.8318815863209</v>
@@ -963,16 +963,16 @@
         <v>11.86534188679525</v>
       </c>
       <c r="K10" t="n">
-        <v>138.0076686145228</v>
+        <v>138.0076686145245</v>
       </c>
       <c r="L10" t="n">
-        <v>11.04186962748337</v>
+        <v>11.041869627477</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3017756026675653</v>
+        <v>0.3017756026680711</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3577860462905109</v>
+        <v>0.3577860462933736</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.000293299999995611</v>
+        <v>0.0001814000000024407</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9994457226439</v>
       </c>
       <c r="F11" t="n">
-        <v>9.851105688707964</v>
+        <v>9.851105688707928</v>
       </c>
       <c r="G11" t="n">
-        <v>1.055780116522474</v>
+        <v>1.055780116522308</v>
       </c>
       <c r="H11" t="n">
-        <v>8.159859008300609</v>
+        <v>8.159859008300465</v>
       </c>
       <c r="I11" t="n">
         <v>4.782971926670573</v>
@@ -1015,16 +1015,16 @@
         <v>18.26849864379155</v>
       </c>
       <c r="K11" t="n">
-        <v>4.536426993374781</v>
+        <v>4.536426993374731</v>
       </c>
       <c r="L11" t="n">
-        <v>17.07841406545297</v>
+        <v>17.07841406545277</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2747606420275931</v>
+        <v>0.2747606420275979</v>
       </c>
       <c r="N11" t="n">
-        <v>0.429522602221951</v>
+        <v>0.4295226022220281</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0006020000000006576</v>
+        <v>0.0002045999999999992</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>359.3342067479352</v>
       </c>
       <c r="F12" t="n">
-        <v>9.961792989904469</v>
+        <v>9.961792989904648</v>
       </c>
       <c r="G12" t="n">
-        <v>130.9826273629125</v>
+        <v>130.9826273629118</v>
       </c>
       <c r="H12" t="n">
-        <v>3.271855446139341</v>
+        <v>3.271855446139456</v>
       </c>
       <c r="I12" t="n">
         <v>40.03006317522596</v>
@@ -1067,16 +1067,16 @@
         <v>5.809547132347129</v>
       </c>
       <c r="K12" t="n">
-        <v>40.11460202594246</v>
+        <v>40.11460202594267</v>
       </c>
       <c r="L12" t="n">
-        <v>6.23703841662921</v>
+        <v>6.23703841662939</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2725388966403608</v>
+        <v>0.2725388966403511</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3577207707062834</v>
+        <v>0.3577207707064902</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003511000000031572</v>
+        <v>0.0002407000000026471</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>359.1252726293474</v>
       </c>
       <c r="F13" t="n">
-        <v>9.101748534584333</v>
+        <v>9.101748534584463</v>
       </c>
       <c r="G13" t="n">
-        <v>26.82600424194366</v>
+        <v>26.8260042419438</v>
       </c>
       <c r="H13" t="n">
-        <v>4.259932339847024</v>
+        <v>4.259932339847318</v>
       </c>
       <c r="I13" t="n">
         <v>16.97012183948808</v>
@@ -1119,16 +1119,16 @@
         <v>11.14346017967418</v>
       </c>
       <c r="K13" t="n">
-        <v>16.81620193332291</v>
+        <v>16.81620193332307</v>
       </c>
       <c r="L13" t="n">
-        <v>11.539562992086</v>
+        <v>11.53956299208648</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3408578266415034</v>
+        <v>0.3408578266414806</v>
       </c>
       <c r="N13" t="n">
-        <v>1.0316721014812</v>
+        <v>1.031672101481451</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.001254600000009987</v>
+        <v>0.000202999999999065</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.763507084255</v>
       </c>
       <c r="F14" t="n">
-        <v>9.38335569427638</v>
+        <v>9.383355694276259</v>
       </c>
       <c r="G14" t="n">
-        <v>26.87246061777849</v>
+        <v>26.87246061777848</v>
       </c>
       <c r="H14" t="n">
-        <v>11.52602327903378</v>
+        <v>11.52602327903326</v>
       </c>
       <c r="I14" t="n">
         <v>21.32604566380087</v>
@@ -1171,16 +1171,16 @@
         <v>21.47093508922593</v>
       </c>
       <c r="K14" t="n">
-        <v>21.1304833496864</v>
+        <v>21.13048334968634</v>
       </c>
       <c r="L14" t="n">
-        <v>20.48172758086391</v>
+        <v>20.48172758086318</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2821551735791095</v>
+        <v>0.2821551735791322</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2222102123296936</v>
+        <v>0.222210212329881</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003464999999920337</v>
+        <v>0.0002242000000016731</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.3561953310252952</v>
       </c>
       <c r="F15" t="n">
-        <v>9.253769908762598</v>
+        <v>9.253769908764095</v>
       </c>
       <c r="G15" t="n">
-        <v>142.4531607875841</v>
+        <v>142.4531607875824</v>
       </c>
       <c r="H15" t="n">
-        <v>5.10184899595731</v>
+        <v>5.101848995958688</v>
       </c>
       <c r="I15" t="n">
         <v>70.55697937574554</v>
@@ -1223,16 +1223,16 @@
         <v>6.028251123835125</v>
       </c>
       <c r="K15" t="n">
-        <v>70.2217654740215</v>
+        <v>70.2217654740227</v>
       </c>
       <c r="L15" t="n">
-        <v>5.269790747153637</v>
+        <v>5.269790747154838</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2445748909470999</v>
+        <v>0.2445748909469959</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6750747138921933</v>
+        <v>0.6750747138909299</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003506999999984828</v>
+        <v>0.0001828000000010377</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>359.2243304443735</v>
       </c>
       <c r="F16" t="n">
-        <v>8.74908300900986</v>
+        <v>8.749083009010333</v>
       </c>
       <c r="G16" t="n">
-        <v>90.25885966292466</v>
+        <v>90.25885966292533</v>
       </c>
       <c r="H16" t="n">
-        <v>10.81237901414678</v>
+        <v>10.81237901414751</v>
       </c>
       <c r="I16" t="n">
         <v>67.01959217131787</v>
@@ -1275,16 +1275,16 @@
         <v>17.25965100693092</v>
       </c>
       <c r="K16" t="n">
-        <v>66.58834172828776</v>
+        <v>66.58834172828794</v>
       </c>
       <c r="L16" t="n">
-        <v>15.28509939226987</v>
+        <v>15.28509939227078</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4202003911804376</v>
+        <v>0.4202003911803887</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6531781604485958</v>
+        <v>0.6531781604482945</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0006305999999938194</v>
+        <v>0.0002925000000004729</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.156164240771768</v>
       </c>
       <c r="F17" t="n">
-        <v>9.526319574536418</v>
+        <v>9.526319574534703</v>
       </c>
       <c r="G17" t="n">
-        <v>154.6807312405426</v>
+        <v>154.6807312405465</v>
       </c>
       <c r="H17" t="n">
-        <v>4.755280519216114</v>
+        <v>4.755280519214709</v>
       </c>
       <c r="I17" t="n">
         <v>64.66687573308144</v>
@@ -1327,16 +1327,16 @@
         <v>4.419793767587765</v>
       </c>
       <c r="K17" t="n">
-        <v>64.28121996460675</v>
+        <v>64.28121996460465</v>
       </c>
       <c r="L17" t="n">
-        <v>4.036697691240284</v>
+        <v>4.036697691239156</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2663957159394934</v>
+        <v>0.2663957159396459</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4783690816573479</v>
+        <v>0.478369081659079</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.00031219999999621</v>
+        <v>0.0001996000000019649</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.9360256394331</v>
       </c>
       <c r="F18" t="n">
-        <v>9.363381639202021</v>
+        <v>9.363381639201609</v>
       </c>
       <c r="G18" t="n">
-        <v>39.20939762034345</v>
+        <v>39.20939762034249</v>
       </c>
       <c r="H18" t="n">
-        <v>8.535567172283848</v>
+        <v>8.535567172283477</v>
       </c>
       <c r="I18" t="n">
         <v>27.73953336539376</v>
@@ -1379,16 +1379,16 @@
         <v>17.9514684390679</v>
       </c>
       <c r="K18" t="n">
-        <v>27.47312959048292</v>
+        <v>27.47312959048269</v>
       </c>
       <c r="L18" t="n">
-        <v>16.54982949884266</v>
+        <v>16.54982949884189</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2257818813601597</v>
+        <v>0.2257818813601775</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4213501716115201</v>
+        <v>0.4213501716117717</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0004994999999894389</v>
+        <v>0.0001937999999981344</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.8618670549893</v>
       </c>
       <c r="F19" t="n">
-        <v>9.329458503535857</v>
+        <v>9.329458503535003</v>
       </c>
       <c r="G19" t="n">
-        <v>51.72134026193908</v>
+        <v>51.72134026193734</v>
       </c>
       <c r="H19" t="n">
-        <v>8.718823981590425</v>
+        <v>8.718823981589479</v>
       </c>
       <c r="I19" t="n">
         <v>35.67338189562808</v>
@@ -1431,16 +1431,16 @@
         <v>17.4087621630154</v>
       </c>
       <c r="K19" t="n">
-        <v>35.35474450588423</v>
+        <v>35.35474450588377</v>
       </c>
       <c r="L19" t="n">
-        <v>16.17796055820595</v>
+        <v>16.17796055820425</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2770585113430474</v>
+        <v>0.2770585113430971</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4034566516593007</v>
+        <v>0.403456651659873</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003367999999994709</v>
+        <v>0.0001874999999991189</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9602857780969</v>
       </c>
       <c r="F20" t="n">
-        <v>8.939828132601093</v>
+        <v>8.939828132598503</v>
       </c>
       <c r="G20" t="n">
-        <v>116.6067258102834</v>
+        <v>116.6067258102816</v>
       </c>
       <c r="H20" t="n">
-        <v>7.728972834959018</v>
+        <v>7.728972834955771</v>
       </c>
       <c r="I20" t="n">
         <v>77.36702495454749</v>
@@ -1483,16 +1483,16 @@
         <v>11.12685015605182</v>
       </c>
       <c r="K20" t="n">
-        <v>77.0785722470437</v>
+        <v>77.07857224704262</v>
       </c>
       <c r="L20" t="n">
-        <v>9.702533699511603</v>
+        <v>9.702533699508207</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2908444445906543</v>
+        <v>0.290844444590834</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6655355263277876</v>
+        <v>0.6655355263295059</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003227999999921849</v>
+        <v>0.0001821999999975787</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.8894983686589</v>
       </c>
       <c r="F21" t="n">
-        <v>9.284742379076762</v>
+        <v>9.284742379076514</v>
       </c>
       <c r="G21" t="n">
-        <v>16.67513020965425</v>
+        <v>16.67513020965387</v>
       </c>
       <c r="H21" t="n">
-        <v>11.34900160823626</v>
+        <v>11.34900160823584</v>
       </c>
       <c r="I21" t="n">
         <v>14.65846372863805</v>
@@ -1535,16 +1535,16 @@
         <v>21.98288036784542</v>
       </c>
       <c r="K21" t="n">
-        <v>14.39612646220718</v>
+        <v>14.39612646220706</v>
       </c>
       <c r="L21" t="n">
-        <v>20.35355721174309</v>
+        <v>20.35355721174234</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2658430708335664</v>
+        <v>0.2658430708335863</v>
       </c>
       <c r="N21" t="n">
-        <v>0.3730642883353114</v>
+        <v>0.3730642883354931</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003389000000026954</v>
+        <v>0.0002515000000009593</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.5580534436913</v>
       </c>
       <c r="F22" t="n">
-        <v>8.029643104103927</v>
+        <v>8.029643104107294</v>
       </c>
       <c r="G22" t="n">
-        <v>103.9241664748459</v>
+        <v>103.9241664748494</v>
       </c>
       <c r="H22" t="n">
-        <v>10.55101369414941</v>
+        <v>10.55101369415524</v>
       </c>
       <c r="I22" t="n">
         <v>80.46804950751098</v>
@@ -1587,16 +1587,16 @@
         <v>17.3070565800005</v>
       </c>
       <c r="K22" t="n">
-        <v>79.98380319840126</v>
+        <v>79.98380319840223</v>
       </c>
       <c r="L22" t="n">
-        <v>13.6050458257969</v>
+        <v>13.60504582580354</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3845018732187641</v>
+        <v>0.384501873218345</v>
       </c>
       <c r="N22" t="n">
-        <v>1.110825931520089</v>
+        <v>1.110825931518062</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003550999999930582</v>
+        <v>0.0001931000000006122</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.02598212475276744</v>
       </c>
       <c r="F23" t="n">
-        <v>9.940066843351845</v>
+        <v>9.94006684335179</v>
       </c>
       <c r="G23" t="n">
-        <v>8.459279791388346</v>
+        <v>8.459279791388205</v>
       </c>
       <c r="H23" t="n">
-        <v>6.071663488781878</v>
+        <v>6.07166348878184</v>
       </c>
       <c r="I23" t="n">
         <v>8.886792062587165</v>
@@ -1639,16 +1639,16 @@
         <v>15.23897862130467</v>
       </c>
       <c r="K23" t="n">
-        <v>8.7897915602714</v>
+        <v>8.789791560271373</v>
       </c>
       <c r="L23" t="n">
-        <v>14.70311159549066</v>
+        <v>14.70311159549056</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2638483912166432</v>
+        <v>0.2638483912166463</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2443058071849896</v>
+        <v>0.2443058071850186</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.001274399999999787</v>
+        <v>0.000189800000001128</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.04597495993259098</v>
       </c>
       <c r="F24" t="n">
-        <v>9.63170294060434</v>
+        <v>9.6317029406042</v>
       </c>
       <c r="G24" t="n">
-        <v>37.2823449928181</v>
+        <v>37.28234499281761</v>
       </c>
       <c r="H24" t="n">
-        <v>8.021240075803805</v>
+        <v>8.021240075803796</v>
       </c>
       <c r="I24" t="n">
         <v>25.73745290239647</v>
@@ -1691,16 +1691,16 @@
         <v>17.47349577797121</v>
       </c>
       <c r="K24" t="n">
-        <v>25.53065565306322</v>
+        <v>25.53065565306315</v>
       </c>
       <c r="L24" t="n">
-        <v>16.26184583173639</v>
+        <v>16.26184583173626</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2932672806128063</v>
+        <v>0.2932672806128094</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3893761217823047</v>
+        <v>0.3893761217823462</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003215999999923724</v>
+        <v>0.0001891000000000531</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.6665059718233</v>
       </c>
       <c r="F25" t="n">
-        <v>8.326601077950427</v>
+        <v>8.326601077949332</v>
       </c>
       <c r="G25" t="n">
-        <v>91.40243988164525</v>
+        <v>91.40243988164413</v>
       </c>
       <c r="H25" t="n">
-        <v>11.56908640692949</v>
+        <v>11.56908640692748</v>
       </c>
       <c r="I25" t="n">
         <v>70.67112797219256</v>
@@ -1743,16 +1743,16 @@
         <v>19.47923218856673</v>
       </c>
       <c r="K25" t="n">
-        <v>70.30244903986004</v>
+        <v>70.30244903985975</v>
       </c>
       <c r="L25" t="n">
-        <v>15.93305753668111</v>
+        <v>15.93305753667859</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3191393812550887</v>
+        <v>0.3191393812552102</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9247454618628235</v>
+        <v>0.924745461863488</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003202999999984968</v>
+        <v>0.0001835999999997284</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>359.3353939136754</v>
       </c>
       <c r="F26" t="n">
-        <v>9.544236460651096</v>
+        <v>9.54423646064763</v>
       </c>
       <c r="G26" t="n">
-        <v>172.3364367523883</v>
+        <v>172.3364367523911</v>
       </c>
       <c r="H26" t="n">
-        <v>10.81620161473345</v>
+        <v>10.81620161472856</v>
       </c>
       <c r="I26" t="n">
         <v>154.9934456744326</v>
@@ -1795,16 +1795,16 @@
         <v>6.82101990562933</v>
       </c>
       <c r="K26" t="n">
-        <v>154.8218768657309</v>
+        <v>154.8218768657334</v>
       </c>
       <c r="L26" t="n">
-        <v>6.559501469508248</v>
+        <v>6.559501469505607</v>
       </c>
       <c r="M26" t="n">
-        <v>0.468124902585603</v>
+        <v>0.4681249025860265</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2452662932922853</v>
+        <v>0.2452662932933086</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0002938000000085594</v>
+        <v>0.0002366000000009194</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.8858634551669</v>
       </c>
       <c r="F27" t="n">
-        <v>9.13319019488123</v>
+        <v>9.1331901948635</v>
       </c>
       <c r="G27" t="n">
-        <v>156.9622478439377</v>
+        <v>156.9622478439494</v>
       </c>
       <c r="H27" t="n">
-        <v>8.85186038031933</v>
+        <v>8.851860380295788</v>
       </c>
       <c r="I27" t="n">
         <v>121.4009088187373</v>
@@ -1847,16 +1847,16 @@
         <v>6.942709063967283</v>
       </c>
       <c r="K27" t="n">
-        <v>121.5378446931072</v>
+        <v>121.5378446931116</v>
       </c>
       <c r="L27" t="n">
-        <v>6.229227863360898</v>
+        <v>6.229227863345931</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3073818327336916</v>
+        <v>0.3073818327349557</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4982358397093679</v>
+        <v>0.4982358397202464</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0002879999999976235</v>
+        <v>0.0002024000000027115</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.90200339417</v>
       </c>
       <c r="F28" t="n">
-        <v>9.426975746610466</v>
+        <v>9.42697574661107</v>
       </c>
       <c r="G28" t="n">
-        <v>54.60566924900685</v>
+        <v>54.60566924900834</v>
       </c>
       <c r="H28" t="n">
-        <v>8.571032777108099</v>
+        <v>8.571032777108655</v>
       </c>
       <c r="I28" t="n">
         <v>36.9783150738388</v>
@@ -1899,16 +1899,16 @@
         <v>17.11232764246076</v>
       </c>
       <c r="K28" t="n">
-        <v>36.76303325282148</v>
+        <v>36.76303325282183</v>
       </c>
       <c r="L28" t="n">
-        <v>15.9375027814392</v>
+        <v>15.93750278144023</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2629931584049752</v>
+        <v>0.262993158404944</v>
       </c>
       <c r="N28" t="n">
-        <v>0.3679723680077204</v>
+        <v>0.3679723680073397</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003231000000027962</v>
+        <v>0.0001885999999977628</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>359.3571972923839</v>
       </c>
       <c r="F29" t="n">
-        <v>8.874386924216658</v>
+        <v>8.874386924215367</v>
       </c>
       <c r="G29" t="n">
-        <v>74.85422379785317</v>
+        <v>74.85422379785157</v>
       </c>
       <c r="H29" t="n">
-        <v>11.41781962418248</v>
+        <v>11.41781962418033</v>
       </c>
       <c r="I29" t="n">
         <v>55.80674075854401</v>
@@ -1951,16 +1951,16 @@
         <v>19.44632462639266</v>
       </c>
       <c r="K29" t="n">
-        <v>55.46817289150396</v>
+        <v>55.4681728915035</v>
       </c>
       <c r="L29" t="n">
-        <v>17.3539097919592</v>
+        <v>17.35390979195618</v>
       </c>
       <c r="M29" t="n">
-        <v>0.34693193370733</v>
+        <v>0.3469319337074644</v>
       </c>
       <c r="N29" t="n">
-        <v>0.5739591046390935</v>
+        <v>0.5739591046399328</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0002936000000062222</v>
+        <v>0.0001835999999997284</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.776833811065</v>
       </c>
       <c r="F30" t="n">
-        <v>8.963514992051278</v>
+        <v>8.963514992052195</v>
       </c>
       <c r="G30" t="n">
-        <v>130.6976752466924</v>
+        <v>130.6976752466925</v>
       </c>
       <c r="H30" t="n">
-        <v>8.419037531191012</v>
+        <v>8.419037531192243</v>
       </c>
       <c r="I30" t="n">
         <v>91.80924814573706</v>
@@ -2003,16 +2003,16 @@
         <v>9.961999912823932</v>
       </c>
       <c r="K30" t="n">
-        <v>91.56734698402127</v>
+        <v>91.56734698402153</v>
       </c>
       <c r="L30" t="n">
-        <v>8.798414302060062</v>
+        <v>8.798414302061166</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2915546229270023</v>
+        <v>0.2915546229269355</v>
       </c>
       <c r="N30" t="n">
-        <v>0.6061844151806246</v>
+        <v>0.6061844151800568</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0002894999999938364</v>
+        <v>0.0003785000000000593</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.2087410631522755</v>
       </c>
       <c r="F31" t="n">
-        <v>9.200170326281938</v>
+        <v>9.200170326278927</v>
       </c>
       <c r="G31" t="n">
-        <v>157.4874509717849</v>
+        <v>157.4874509717903</v>
       </c>
       <c r="H31" t="n">
-        <v>5.627528044085258</v>
+        <v>5.62752804408236</v>
       </c>
       <c r="I31" t="n">
         <v>85.08185965409687</v>
@@ -2055,16 +2055,16 @@
         <v>4.383667298314077</v>
       </c>
       <c r="K31" t="n">
-        <v>84.79337835857766</v>
+        <v>84.79337835857568</v>
       </c>
       <c r="L31" t="n">
-        <v>3.805313867524107</v>
+        <v>3.805313867522177</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2774397824538158</v>
+        <v>0.2774397824540615</v>
       </c>
       <c r="N31" t="n">
-        <v>0.6504859135959961</v>
+        <v>0.650485913598491</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003154999999992469</v>
+        <v>0.0001934000000005653</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0.6320263323882001</v>
       </c>
       <c r="F32" t="n">
-        <v>8.624649267593535</v>
+        <v>8.624649267592011</v>
       </c>
       <c r="G32" t="n">
-        <v>117.1786260538406</v>
+        <v>117.1786260538393</v>
       </c>
       <c r="H32" t="n">
-        <v>5.825104301081184</v>
+        <v>5.825104301079548</v>
       </c>
       <c r="I32" t="n">
         <v>69.94009040741105</v>
@@ -2107,16 +2107,16 @@
         <v>9.94082687493656</v>
       </c>
       <c r="K32" t="n">
-        <v>69.38731137144012</v>
+        <v>69.3873113714391</v>
       </c>
       <c r="L32" t="n">
-        <v>7.995791315110261</v>
+        <v>7.995791315108511</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2984003417948296</v>
+        <v>0.2984003417949399</v>
       </c>
       <c r="N32" t="n">
-        <v>1.071111505160459</v>
+        <v>1.071111505161516</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0002913000000006605</v>
+        <v>0.0001847999999995409</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.2073786071257917</v>
       </c>
       <c r="F33" t="n">
-        <v>8.858871057590143</v>
+        <v>8.858871057590141</v>
       </c>
       <c r="G33" t="n">
-        <v>50.03886004923375</v>
+        <v>50.03886004923362</v>
       </c>
       <c r="H33" t="n">
-        <v>12.40866726794833</v>
+        <v>12.40866726794844</v>
       </c>
       <c r="I33" t="n">
         <v>39.0616009844012</v>
@@ -2159,16 +2159,16 @@
         <v>23.45979414801152</v>
       </c>
       <c r="K33" t="n">
-        <v>38.59532921085384</v>
+        <v>38.59532921085383</v>
       </c>
       <c r="L33" t="n">
-        <v>20.22346063258568</v>
+        <v>20.22346063258582</v>
       </c>
       <c r="M33" t="n">
-        <v>0.2919985037567141</v>
+        <v>0.2919985037567063</v>
       </c>
       <c r="N33" t="n">
-        <v>0.742930465861606</v>
+        <v>0.742930465861579</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0002946000000036975</v>
+        <v>0.0001956000000014058</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.1744472254947149</v>
       </c>
       <c r="F34" t="n">
-        <v>8.818677155534965</v>
+        <v>8.818677155540813</v>
       </c>
       <c r="G34" t="n">
-        <v>156.4692724197098</v>
+        <v>156.4692724197017</v>
       </c>
       <c r="H34" t="n">
-        <v>6.170784054159001</v>
+        <v>6.17078405416532</v>
       </c>
       <c r="I34" t="n">
         <v>98.12939238316436</v>
@@ -2211,16 +2211,16 @@
         <v>5.067646835573846</v>
       </c>
       <c r="K34" t="n">
-        <v>98.04272178343622</v>
+        <v>98.0427217834378</v>
       </c>
       <c r="L34" t="n">
-        <v>4.194920025245136</v>
+        <v>4.194920025249199</v>
       </c>
       <c r="M34" t="n">
-        <v>0.2777180103288658</v>
+        <v>0.2777180103284957</v>
       </c>
       <c r="N34" t="n">
-        <v>0.790934930057315</v>
+        <v>0.7909349300532702</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003171000000037338</v>
+        <v>0.0001977999999986935</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.1594267525540688</v>
       </c>
       <c r="F35" t="n">
-        <v>9.48321974564791</v>
+        <v>9.483219745647791</v>
       </c>
       <c r="G35" t="n">
-        <v>44.22794422910754</v>
+        <v>44.22794422910741</v>
       </c>
       <c r="H35" t="n">
-        <v>7.517671619811241</v>
+        <v>7.517671619811082</v>
       </c>
       <c r="I35" t="n">
         <v>29.60621371940404</v>
@@ -2263,16 +2263,16 @@
         <v>16.7283342947574</v>
       </c>
       <c r="K35" t="n">
-        <v>29.3267038991286</v>
+        <v>29.32670389912855</v>
       </c>
       <c r="L35" t="n">
-        <v>15.29080329969831</v>
+        <v>15.29080329969804</v>
       </c>
       <c r="M35" t="n">
-        <v>0.2564682227479289</v>
+        <v>0.2564682227479374</v>
       </c>
       <c r="N35" t="n">
-        <v>0.4882167563590933</v>
+        <v>0.4882167563591862</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003030999999964479</v>
+        <v>0.0002372000000008256</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.8780824496862</v>
       </c>
       <c r="F36" t="n">
-        <v>9.574145074289127</v>
+        <v>9.574145074289122</v>
       </c>
       <c r="G36" t="n">
-        <v>6.530363576469822</v>
+        <v>6.530363576469797</v>
       </c>
       <c r="H36" t="n">
-        <v>11.51462788933333</v>
+        <v>11.51462788933328</v>
       </c>
       <c r="I36" t="n">
         <v>7.633544320503938</v>
@@ -2315,16 +2315,16 @@
         <v>22.30604591386155</v>
       </c>
       <c r="K36" t="n">
-        <v>7.49517898296687</v>
+        <v>7.495178982966857</v>
       </c>
       <c r="L36" t="n">
-        <v>20.86392701587041</v>
+        <v>20.86392701587035</v>
       </c>
       <c r="M36" t="n">
-        <v>0.255320523680285</v>
+        <v>0.2553205236802862</v>
       </c>
       <c r="N36" t="n">
-        <v>0.3238289181360636</v>
+        <v>0.3238289181360791</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.000295900000011784</v>
+        <v>0.0001935999999993498</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0.9448683550439242</v>
       </c>
       <c r="F37" t="n">
-        <v>9.082822200134311</v>
+        <v>9.082822200133981</v>
       </c>
       <c r="G37" t="n">
-        <v>84.91414051573173</v>
+        <v>84.91414051573285</v>
       </c>
       <c r="H37" t="n">
-        <v>5.154315464753663</v>
+        <v>5.154315464753187</v>
       </c>
       <c r="I37" t="n">
         <v>47.28302978168723</v>
@@ -2367,16 +2367,16 @@
         <v>12.44155687331505</v>
       </c>
       <c r="K37" t="n">
-        <v>46.84745756844178</v>
+        <v>46.84745756844165</v>
       </c>
       <c r="L37" t="n">
-        <v>10.25455421420428</v>
+        <v>10.25455421420352</v>
       </c>
       <c r="M37" t="n">
-        <v>0.3558546323929452</v>
+        <v>0.3558546323929831</v>
       </c>
       <c r="N37" t="n">
-        <v>1.040273436866505</v>
+        <v>1.04027343686684</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0005065999999942505</v>
+        <v>0.0001853000000018312</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.6617933671228</v>
       </c>
       <c r="F38" t="n">
-        <v>8.489722526134788</v>
+        <v>8.489722526133349</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3532073114205</v>
+        <v>130.3532073114202</v>
       </c>
       <c r="H38" t="n">
-        <v>8.22584925345925</v>
+        <v>8.225849253457254</v>
       </c>
       <c r="I38" t="n">
         <v>93.75460165970797</v>
@@ -2419,16 +2419,16 @@
         <v>10.42956719317792</v>
       </c>
       <c r="K38" t="n">
-        <v>93.4315636390664</v>
+        <v>93.43156363906608</v>
       </c>
       <c r="L38" t="n">
-        <v>8.6582468551088</v>
+        <v>8.658246855107015</v>
       </c>
       <c r="M38" t="n">
-        <v>0.382817768649344</v>
+        <v>0.3828177686494963</v>
       </c>
       <c r="N38" t="n">
-        <v>0.8709543985727914</v>
+        <v>0.8709543985736519</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.000304799999994998</v>
+        <v>0.0001818000000000097</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.02723180616874827</v>
       </c>
       <c r="F39" t="n">
-        <v>9.381302954061818</v>
+        <v>9.381302954059658</v>
       </c>
       <c r="G39" t="n">
-        <v>170.8122015153442</v>
+        <v>170.8122015153471</v>
       </c>
       <c r="H39" t="n">
-        <v>7.84606681482276</v>
+        <v>7.84606681482024</v>
       </c>
       <c r="I39" t="n">
         <v>132.8794796020886</v>
@@ -2471,16 +2471,16 @@
         <v>4.031761962137695</v>
       </c>
       <c r="K39" t="n">
-        <v>133.3643029362834</v>
+        <v>133.3643029362851</v>
       </c>
       <c r="L39" t="n">
-        <v>3.683975562329767</v>
+        <v>3.683975562328564</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2593328176375416</v>
+        <v>0.2593328176376904</v>
       </c>
       <c r="N39" t="n">
-        <v>0.4960084042291268</v>
+        <v>0.4960084042308511</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0002891000000033728</v>
+        <v>0.0002010000000005618</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>359.4956471759416</v>
       </c>
       <c r="F40" t="n">
-        <v>9.022405937181128</v>
+        <v>9.022405937180801</v>
       </c>
       <c r="G40" t="n">
-        <v>67.87156807752248</v>
+        <v>67.87156807752172</v>
       </c>
       <c r="H40" t="n">
-        <v>12.04493994530858</v>
+        <v>12.0449399453082</v>
       </c>
       <c r="I40" t="n">
         <v>51.01422188754402</v>
@@ -2523,16 +2523,16 @@
         <v>20.73148308181667</v>
       </c>
       <c r="K40" t="n">
-        <v>50.70412590767548</v>
+        <v>50.70412590767528</v>
       </c>
       <c r="L40" t="n">
-        <v>18.71117419603696</v>
+        <v>18.71117419603637</v>
       </c>
       <c r="M40" t="n">
-        <v>0.3275011054920145</v>
+        <v>0.3275011054920261</v>
       </c>
       <c r="N40" t="n">
-        <v>0.5133504774494076</v>
+        <v>0.5133504774495957</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0009299000000027036</v>
+        <v>0.0005238999999974681</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>359.297580216989</v>
       </c>
       <c r="F41" t="n">
-        <v>8.526071445801382</v>
+        <v>8.526071445802737</v>
       </c>
       <c r="G41" t="n">
-        <v>96.31851686886743</v>
+        <v>96.31851686886871</v>
       </c>
       <c r="H41" t="n">
-        <v>10.57166498705106</v>
+        <v>10.57166498705332</v>
       </c>
       <c r="I41" t="n">
         <v>72.19761816275663</v>
@@ -2575,16 +2575,16 @@
         <v>16.90630795593209</v>
       </c>
       <c r="K41" t="n">
-        <v>71.73636269962293</v>
+        <v>71.73636269962333</v>
       </c>
       <c r="L41" t="n">
-        <v>14.4002880299951</v>
+        <v>14.40028802999785</v>
       </c>
       <c r="M41" t="n">
-        <v>0.4173139532423311</v>
+        <v>0.4173139532421502</v>
       </c>
       <c r="N41" t="n">
-        <v>0.8136438874855059</v>
+        <v>0.8136438874846548</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003178999999988719</v>
+        <v>0.0002419000000024596</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.3037738486056159</v>
       </c>
       <c r="F42" t="n">
-        <v>9.712812103412919</v>
+        <v>9.712812103412778</v>
       </c>
       <c r="G42" t="n">
-        <v>75.06336598623747</v>
+        <v>75.06336598623712</v>
       </c>
       <c r="H42" t="n">
-        <v>3.234500815588259</v>
+        <v>3.234500815588166</v>
       </c>
       <c r="I42" t="n">
         <v>31.92625942098924</v>
@@ -2627,16 +2627,16 @@
         <v>10.18120494273455</v>
       </c>
       <c r="K42" t="n">
-        <v>31.55404399792106</v>
+        <v>31.55404399792093</v>
       </c>
       <c r="L42" t="n">
-        <v>9.501585068799869</v>
+        <v>9.501585068799685</v>
       </c>
       <c r="M42" t="n">
-        <v>0.2613357048190475</v>
+        <v>0.2613357048190562</v>
       </c>
       <c r="N42" t="n">
-        <v>0.5395902423405824</v>
+        <v>0.5395902423406954</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0002959999999916363</v>
+        <v>0.0002230000000018606</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.1353561615336547</v>
       </c>
       <c r="F43" t="n">
-        <v>9.71432402371553</v>
+        <v>9.714324023715463</v>
       </c>
       <c r="G43" t="n">
-        <v>45.44448530768961</v>
+        <v>45.44448530768857</v>
       </c>
       <c r="H43" t="n">
-        <v>3.132712623206313</v>
+        <v>3.132712623206368</v>
       </c>
       <c r="I43" t="n">
         <v>21.98281729864149</v>
@@ -2679,16 +2679,16 @@
         <v>11.20442922515501</v>
       </c>
       <c r="K43" t="n">
-        <v>21.68954438875612</v>
+        <v>21.68954438875606</v>
       </c>
       <c r="L43" t="n">
-        <v>10.47721437320611</v>
+        <v>10.47721437320613</v>
       </c>
       <c r="M43" t="n">
-        <v>0.2589347731712318</v>
+        <v>0.2589347731712326</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4842678471970362</v>
+        <v>0.4842678471969894</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0002992000000006101</v>
+        <v>0.0002493000000001189</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.7516429234944</v>
       </c>
       <c r="F44" t="n">
-        <v>8.908056181617187</v>
+        <v>8.908056181617031</v>
       </c>
       <c r="G44" t="n">
-        <v>66.19069597010362</v>
+        <v>66.19069597010341</v>
       </c>
       <c r="H44" t="n">
-        <v>12.63154447712178</v>
+        <v>12.63154447712151</v>
       </c>
       <c r="I44" t="n">
         <v>50.70287428680181</v>
@@ -2731,16 +2731,16 @@
         <v>22.14193003827787</v>
       </c>
       <c r="K44" t="n">
-        <v>50.39561296043125</v>
+        <v>50.39561296043119</v>
       </c>
       <c r="L44" t="n">
-        <v>19.4683509471392</v>
+        <v>19.4683509471388</v>
       </c>
       <c r="M44" t="n">
-        <v>0.2963137948379396</v>
+        <v>0.296313794837953</v>
       </c>
       <c r="N44" t="n">
-        <v>0.6170521617074088</v>
+        <v>0.6170521617075055</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003227000000123326</v>
+        <v>0.0002467999999993253</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.8713000373277</v>
       </c>
       <c r="F45" t="n">
-        <v>9.353989615559513</v>
+        <v>9.353989615559049</v>
       </c>
       <c r="G45" t="n">
-        <v>19.66218440472689</v>
+        <v>19.66218440472604</v>
       </c>
       <c r="H45" t="n">
-        <v>9.810205247544035</v>
+        <v>9.810205247543584</v>
       </c>
       <c r="I45" t="n">
         <v>16.3064939917049</v>
@@ -2783,16 +2783,16 @@
         <v>19.74929820405307</v>
       </c>
       <c r="K45" t="n">
-        <v>15.99912454791629</v>
+        <v>15.99912454791603</v>
       </c>
       <c r="L45" t="n">
-        <v>18.54163689028012</v>
+        <v>18.54163689027914</v>
       </c>
       <c r="M45" t="n">
-        <v>0.2622846487453683</v>
+        <v>0.2622846487453935</v>
       </c>
       <c r="N45" t="n">
-        <v>0.3258637533510111</v>
+        <v>0.3258637533512883</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003722999999951071</v>
+        <v>0.0002110000000001833</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.3753073586279415</v>
       </c>
       <c r="F46" t="n">
-        <v>9.603573939358737</v>
+        <v>9.60357393935845</v>
       </c>
       <c r="G46" t="n">
-        <v>154.5816994203551</v>
+        <v>154.5816994203559</v>
       </c>
       <c r="H46" t="n">
-        <v>3.989770685874973</v>
+        <v>3.98977068587477</v>
       </c>
       <c r="I46" t="n">
         <v>51.49320715697708</v>
@@ -2835,16 +2835,16 @@
         <v>4.733318900759217</v>
       </c>
       <c r="K46" t="n">
-        <v>51.00131344285852</v>
+        <v>51.00131344285811</v>
       </c>
       <c r="L46" t="n">
-        <v>4.231256773960612</v>
+        <v>4.231256773960424</v>
       </c>
       <c r="M46" t="n">
-        <v>0.2839138922784171</v>
+        <v>0.2839138922784513</v>
       </c>
       <c r="N46" t="n">
-        <v>0.5647489278508082</v>
+        <v>0.5647489278511137</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0002956000000011727</v>
+        <v>0.000197599999999909</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.9868126135752</v>
       </c>
       <c r="F47" t="n">
-        <v>9.806783215684167</v>
+        <v>9.806783215676946</v>
       </c>
       <c r="G47" t="n">
-        <v>178.2346820934163</v>
+        <v>178.2346820934246</v>
       </c>
       <c r="H47" t="n">
-        <v>9.358337882848648</v>
+        <v>9.358337882839709</v>
       </c>
       <c r="I47" t="n">
         <v>159.1796698056864</v>
@@ -2887,16 +2887,16 @@
         <v>4.410985878453859</v>
       </c>
       <c r="K47" t="n">
-        <v>159.4277709268285</v>
+        <v>159.4277709268367</v>
       </c>
       <c r="L47" t="n">
-        <v>4.309042951153961</v>
+        <v>4.30904295115004</v>
       </c>
       <c r="M47" t="n">
-        <v>0.2428569064293156</v>
+        <v>0.2428569064298568</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1674042335723575</v>
+        <v>0.167404233578436</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003228999999862481</v>
+        <v>0.0001966000000024337</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.7075620800647</v>
       </c>
       <c r="F48" t="n">
-        <v>8.615336554191682</v>
+        <v>8.615336554188765</v>
       </c>
       <c r="G48" t="n">
-        <v>140.8412413173756</v>
+        <v>140.841241317376</v>
       </c>
       <c r="H48" t="n">
-        <v>8.723015921462975</v>
+        <v>8.72301592145884</v>
       </c>
       <c r="I48" t="n">
         <v>105.4244541290951</v>
@@ -2939,16 +2939,16 @@
         <v>9.516228537064677</v>
       </c>
       <c r="K48" t="n">
-        <v>105.3086783950151</v>
+        <v>105.308678395015</v>
       </c>
       <c r="L48" t="n">
-        <v>8.021091939353282</v>
+        <v>8.021091939349983</v>
       </c>
       <c r="M48" t="n">
-        <v>0.3497218339250024</v>
+        <v>0.3497218339252772</v>
       </c>
       <c r="N48" t="n">
-        <v>0.7431892440299126</v>
+        <v>0.7431892440314753</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0002996000000052845</v>
+        <v>0.0001999999999995339</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.4240047378830676</v>
       </c>
       <c r="F49" t="n">
-        <v>9.609418967136518</v>
+        <v>9.609418967136708</v>
       </c>
       <c r="G49" t="n">
-        <v>19.83366969071875</v>
+        <v>19.83366969071894</v>
       </c>
       <c r="H49" t="n">
-        <v>12.5119086045705</v>
+        <v>12.51190860457118</v>
       </c>
       <c r="I49" t="n">
         <v>17.03401812828383</v>
@@ -2991,16 +2991,16 @@
         <v>25.00422823336124</v>
       </c>
       <c r="K49" t="n">
-        <v>16.70133074604031</v>
+        <v>16.70133074604042</v>
       </c>
       <c r="L49" t="n">
-        <v>22.04647154989055</v>
+        <v>22.04647154989155</v>
       </c>
       <c r="M49" t="n">
-        <v>0.2756981164442059</v>
+        <v>0.2756981164441851</v>
       </c>
       <c r="N49" t="n">
-        <v>0.6664047834122062</v>
+        <v>0.6664047834119911</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0002919000000076721</v>
+        <v>0.0002451000000007753</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.4968156599642271</v>
       </c>
       <c r="F50" t="n">
-        <v>10.24483819107509</v>
+        <v>10.24483819107502</v>
       </c>
       <c r="G50" t="n">
-        <v>1.681294408325194</v>
+        <v>1.681294408325182</v>
       </c>
       <c r="H50" t="n">
-        <v>10.98132094138819</v>
+        <v>10.98132094138826</v>
       </c>
       <c r="I50" t="n">
         <v>4.979091423193565</v>
@@ -3046,13 +3046,13 @@
         <v>4.5244196066466</v>
       </c>
       <c r="L50" t="n">
-        <v>20.8650221545075</v>
+        <v>20.86502215450752</v>
       </c>
       <c r="M50" t="n">
-        <v>0.2875197666445397</v>
+        <v>0.2875197666445399</v>
       </c>
       <c r="N50" t="n">
-        <v>0.8571775698589468</v>
+        <v>0.8571775698589319</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003458999999992329</v>
+        <v>0.0001958000000001903</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0.5215795391032959</v>
       </c>
       <c r="F51" t="n">
-        <v>9.520456483531337</v>
+        <v>9.520456483530792</v>
       </c>
       <c r="G51" t="n">
-        <v>54.65602249834239</v>
+        <v>54.65602249834093</v>
       </c>
       <c r="H51" t="n">
-        <v>4.989613650790454</v>
+        <v>4.989613650790012</v>
       </c>
       <c r="I51" t="n">
         <v>31.07252442683621</v>
@@ -3095,16 +3095,16 @@
         <v>13.5120365339658</v>
       </c>
       <c r="K51" t="n">
-        <v>30.64034540764671</v>
+        <v>30.64034540764633</v>
       </c>
       <c r="L51" t="n">
-        <v>12.04973645471357</v>
+        <v>12.04973645471268</v>
       </c>
       <c r="M51" t="n">
-        <v>0.2607926785657474</v>
+        <v>0.2607926785657769</v>
       </c>
       <c r="N51" t="n">
-        <v>0.7091804836866751</v>
+        <v>0.709180483687027</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003049999999973352</v>
+        <v>0.0002089000000005115</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0.7801760543418236</v>
       </c>
       <c r="F52" t="n">
-        <v>9.192268047040752</v>
+        <v>9.192268047040573</v>
       </c>
       <c r="G52" t="n">
-        <v>91.66948859055344</v>
+        <v>91.66948859055238</v>
       </c>
       <c r="H52" t="n">
-        <v>4.565190637546516</v>
+        <v>4.565190637546407</v>
       </c>
       <c r="I52" t="n">
         <v>47.03792036458195</v>
@@ -3147,16 +3147,16 @@
         <v>11.00547523311644</v>
       </c>
       <c r="K52" t="n">
-        <v>46.54670683894332</v>
+        <v>46.54670683894312</v>
       </c>
       <c r="L52" t="n">
-        <v>9.327996235401161</v>
+        <v>9.327996235401013</v>
       </c>
       <c r="M52" t="n">
-        <v>0.3148885247707676</v>
+        <v>0.3148885247707767</v>
       </c>
       <c r="N52" t="n">
-        <v>0.9535060915290632</v>
+        <v>0.9535060915291638</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003017000000085091</v>
+        <v>0.0002168000000004611</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.1452515866743192</v>
       </c>
       <c r="F53" t="n">
-        <v>9.641697871523279</v>
+        <v>9.641697871523075</v>
       </c>
       <c r="G53" t="n">
-        <v>122.9040439523231</v>
+        <v>122.9040439523237</v>
       </c>
       <c r="H53" t="n">
-        <v>3.258944621548355</v>
+        <v>3.258944621548213</v>
       </c>
       <c r="I53" t="n">
         <v>42.84508415968962</v>
@@ -3199,16 +3199,16 @@
         <v>7.034854823508725</v>
       </c>
       <c r="K53" t="n">
-        <v>42.42023198897319</v>
+        <v>42.42023198897298</v>
       </c>
       <c r="L53" t="n">
-        <v>6.638780834059152</v>
+        <v>6.638780834058933</v>
       </c>
       <c r="M53" t="n">
-        <v>0.2546805941860042</v>
+        <v>0.254680594186019</v>
       </c>
       <c r="N53" t="n">
-        <v>0.4280966311301104</v>
+        <v>0.4280966311303275</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003060000000090213</v>
+        <v>0.0003300999999993337</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.7402620796929</v>
       </c>
       <c r="F54" t="n">
-        <v>9.97867233136181</v>
+        <v>9.978672331362059</v>
       </c>
       <c r="G54" t="n">
-        <v>145.3303663137011</v>
+        <v>145.3303663136997</v>
       </c>
       <c r="H54" t="n">
-        <v>3.278805579041373</v>
+        <v>3.278805579041514</v>
       </c>
       <c r="I54" t="n">
         <v>39.20823517402567</v>
@@ -3251,16 +3251,16 @@
         <v>5.169813417634993</v>
       </c>
       <c r="K54" t="n">
-        <v>39.18408909991003</v>
+        <v>39.18408909991035</v>
       </c>
       <c r="L54" t="n">
-        <v>5.323356705880259</v>
+        <v>5.323356705880494</v>
       </c>
       <c r="M54" t="n">
-        <v>0.2394040575971795</v>
+        <v>0.239404057597165</v>
       </c>
       <c r="N54" t="n">
-        <v>0.1523875250692175</v>
+        <v>0.1523875250691364</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003188999999963471</v>
+        <v>0.0002083000000006052</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.8970675665747</v>
       </c>
       <c r="F55" t="n">
-        <v>8.772206540164902</v>
+        <v>8.772206540198324</v>
       </c>
       <c r="G55" t="n">
-        <v>152.8929761620997</v>
+        <v>152.8929761620788</v>
       </c>
       <c r="H55" t="n">
-        <v>8.142930434376943</v>
+        <v>8.142930434420798</v>
       </c>
       <c r="I55" t="n">
         <v>114.2699214848488</v>
@@ -3303,16 +3303,16 @@
         <v>7.220398177179498</v>
       </c>
       <c r="K55" t="n">
-        <v>114.3902401733312</v>
+        <v>114.390240173327</v>
       </c>
       <c r="L55" t="n">
-        <v>6.156575359387821</v>
+        <v>6.156575359417374</v>
       </c>
       <c r="M55" t="n">
-        <v>0.3247887030947301</v>
+        <v>0.3247887030921549</v>
       </c>
       <c r="N55" t="n">
-        <v>0.6966170708156154</v>
+        <v>0.6966170707959622</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.000311500000009346</v>
+        <v>0.0001819000000011783</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0.9261053723064553</v>
       </c>
       <c r="F56" t="n">
-        <v>9.056455718243843</v>
+        <v>9.05645571824309</v>
       </c>
       <c r="G56" t="n">
-        <v>76.82815376278201</v>
+        <v>76.82815376278084</v>
       </c>
       <c r="H56" t="n">
-        <v>5.702110868266407</v>
+        <v>5.702110868265627</v>
       </c>
       <c r="I56" t="n">
         <v>45.4456541921149</v>
@@ -3355,16 +3355,16 @@
         <v>13.64739445873363</v>
       </c>
       <c r="K56" t="n">
-        <v>44.9326199174906</v>
+        <v>44.93261991749013</v>
       </c>
       <c r="L56" t="n">
-        <v>11.29779252435418</v>
+        <v>11.29779252435292</v>
       </c>
       <c r="M56" t="n">
-        <v>0.3097005619966071</v>
+        <v>0.3097005619966557</v>
       </c>
       <c r="N56" t="n">
-        <v>1.007925831238754</v>
+        <v>1.007925831239258</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0002991000000065469</v>
+        <v>0.0002148999999995738</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0.8118655573170027</v>
       </c>
       <c r="F57" t="n">
-        <v>9.976158093066347</v>
+        <v>9.976158093066328</v>
       </c>
       <c r="G57" t="n">
-        <v>16.26790273859395</v>
+        <v>16.26790273859394</v>
       </c>
       <c r="H57" t="n">
-        <v>11.72222088491831</v>
+        <v>11.72222088491823</v>
       </c>
       <c r="I57" t="n">
         <v>14.44966940927695</v>
@@ -3410,13 +3410,13 @@
         <v>14.13112833431971</v>
       </c>
       <c r="L57" t="n">
-        <v>21.51326504236307</v>
+        <v>21.51326504236295</v>
       </c>
       <c r="M57" t="n">
-        <v>0.302522655011576</v>
+        <v>0.3025226550115779</v>
       </c>
       <c r="N57" t="n">
-        <v>0.8264704636151097</v>
+        <v>0.8264704636151319</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003262000000034959</v>
+        <v>0.0001875000000026716</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0.5188215877512897</v>
       </c>
       <c r="F58" t="n">
-        <v>8.614607671319362</v>
+        <v>8.614607671315834</v>
       </c>
       <c r="G58" t="n">
-        <v>181.8623691770908</v>
+        <v>181.8623691771014</v>
       </c>
       <c r="H58" t="n">
-        <v>5.652634426236355</v>
+        <v>5.652634426232957</v>
       </c>
       <c r="I58" t="n">
         <v>122.3917356254008</v>
@@ -3459,16 +3459,16 @@
         <v>1.88002910171164</v>
       </c>
       <c r="K58" t="n">
-        <v>127.2487721986681</v>
+        <v>127.2487721986784</v>
       </c>
       <c r="L58" t="n">
-        <v>1.291452272482973</v>
+        <v>1.291452272481694</v>
       </c>
       <c r="M58" t="n">
-        <v>0.7708684833959534</v>
+        <v>0.7708684833982024</v>
       </c>
       <c r="N58" t="n">
-        <v>2.335210061140703</v>
+        <v>2.335210061145888</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.000289999999992574</v>
+        <v>0.0002399999999980196</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.06552607867345203</v>
       </c>
       <c r="F59" t="n">
-        <v>9.593785221670153</v>
+        <v>9.593785221669997</v>
       </c>
       <c r="G59" t="n">
-        <v>14.43851392679341</v>
+        <v>14.43851392679291</v>
       </c>
       <c r="H59" t="n">
-        <v>5.49430289342865</v>
+        <v>5.494302893428288</v>
       </c>
       <c r="I59" t="n">
         <v>12.23519148406908</v>
@@ -3511,16 +3511,16 @@
         <v>14.37002887945796</v>
       </c>
       <c r="K59" t="n">
-        <v>11.93893426409926</v>
+        <v>11.93893426409907</v>
       </c>
       <c r="L59" t="n">
-        <v>13.65777629561712</v>
+        <v>13.65777629561653</v>
       </c>
       <c r="M59" t="n">
-        <v>0.2845076736373699</v>
+        <v>0.2845076736373868</v>
       </c>
       <c r="N59" t="n">
-        <v>0.3064712685849498</v>
+        <v>0.3064712685852366</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003013999999978978</v>
+        <v>0.0001981000000021993</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.3800930730872643</v>
       </c>
       <c r="F60" t="n">
-        <v>9.135035905364427</v>
+        <v>9.135035905363484</v>
       </c>
       <c r="G60" t="n">
-        <v>64.73272751607675</v>
+        <v>64.73272751607475</v>
       </c>
       <c r="H60" t="n">
-        <v>7.177441699238728</v>
+        <v>7.177441699237724</v>
       </c>
       <c r="I60" t="n">
         <v>41.96631688030001</v>
@@ -3563,16 +3563,16 @@
         <v>15.51473424919647</v>
       </c>
       <c r="K60" t="n">
-        <v>41.50105304768711</v>
+        <v>41.50105304768655</v>
       </c>
       <c r="L60" t="n">
-        <v>13.61227753629866</v>
+        <v>13.61227753629696</v>
       </c>
       <c r="M60" t="n">
-        <v>0.2570217383393913</v>
+        <v>0.2570217383394396</v>
       </c>
       <c r="N60" t="n">
-        <v>0.7128741789588243</v>
+        <v>0.7128741789594977</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003482000000047947</v>
+        <v>0.0001883000000013624</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0.8346417606973641</v>
       </c>
       <c r="F61" t="n">
-        <v>9.01442415693146</v>
+        <v>9.014424156931183</v>
       </c>
       <c r="G61" t="n">
-        <v>174.7254857374589</v>
+        <v>174.7254857374605</v>
       </c>
       <c r="H61" t="n">
-        <v>4.318070274409648</v>
+        <v>4.318070274409481</v>
       </c>
       <c r="I61" t="n">
         <v>56.76408976169788</v>
@@ -3615,16 +3615,16 @@
         <v>3.059300117780022</v>
       </c>
       <c r="K61" t="n">
-        <v>55.16640987783916</v>
+        <v>55.16640987783867</v>
       </c>
       <c r="L61" t="n">
-        <v>2.166269067028878</v>
+        <v>2.166269067028691</v>
       </c>
       <c r="M61" t="n">
-        <v>0.432626152114565</v>
+        <v>0.4326261521146653</v>
       </c>
       <c r="N61" t="n">
-        <v>1.390314103514459</v>
+        <v>1.390314103514807</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0002984999999995352</v>
+        <v>0.0001832999999997753</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.4608854966065385</v>
       </c>
       <c r="F62" t="n">
-        <v>9.707008285550597</v>
+        <v>9.707008285550367</v>
       </c>
       <c r="G62" t="n">
-        <v>55.87642744750742</v>
+        <v>55.87642744750667</v>
       </c>
       <c r="H62" t="n">
-        <v>4.418611675591252</v>
+        <v>4.418611675591096</v>
       </c>
       <c r="I62" t="n">
         <v>29.53509225686502</v>
@@ -3667,16 +3667,16 @@
         <v>12.72106643331113</v>
       </c>
       <c r="K62" t="n">
-        <v>29.25601417705147</v>
+        <v>29.25601417705129</v>
       </c>
       <c r="L62" t="n">
-        <v>11.53635636113881</v>
+        <v>11.53635636113848</v>
       </c>
       <c r="M62" t="n">
-        <v>0.3033711355251495</v>
+        <v>0.3033711355251635</v>
       </c>
       <c r="N62" t="n">
-        <v>0.6611970605231734</v>
+        <v>0.6611970605233157</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0002987000000018725</v>
+        <v>0.0002416999999965697</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.2157477757799077</v>
       </c>
       <c r="F63" t="n">
-        <v>9.512962742499397</v>
+        <v>9.512962742499104</v>
       </c>
       <c r="G63" t="n">
-        <v>150.5005517906858</v>
+        <v>150.5005517906868</v>
       </c>
       <c r="H63" t="n">
-        <v>4.757764559305178</v>
+        <v>4.757764559304938</v>
       </c>
       <c r="I63" t="n">
         <v>64.68552660313826</v>
@@ -3719,16 +3719,16 @@
         <v>4.894765047516295</v>
       </c>
       <c r="K63" t="n">
-        <v>64.37167029006915</v>
+        <v>64.37167029006893</v>
       </c>
       <c r="L63" t="n">
-        <v>4.456018354983334</v>
+        <v>4.456018354983095</v>
       </c>
       <c r="M63" t="n">
-        <v>0.2782606659170458</v>
+        <v>0.2782606659170711</v>
       </c>
       <c r="N63" t="n">
-        <v>0.4823528427666642</v>
+        <v>0.4823528427669417</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.000285899999994399</v>
+        <v>0.0001911999999997249</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.006162713151847251</v>
       </c>
       <c r="F64" t="n">
-        <v>9.86602177094106</v>
+        <v>9.866021770940918</v>
       </c>
       <c r="G64" t="n">
-        <v>5.578841136266228</v>
+        <v>5.578841136266164</v>
       </c>
       <c r="H64" t="n">
-        <v>8.257996328077839</v>
+        <v>8.257996328078105</v>
       </c>
       <c r="I64" t="n">
         <v>7.285415246674767</v>
@@ -3774,13 +3774,13 @@
         <v>7.111303922411266</v>
       </c>
       <c r="L64" t="n">
-        <v>17.24497311361043</v>
+        <v>17.24497311361061</v>
       </c>
       <c r="M64" t="n">
-        <v>0.2329784006075844</v>
+        <v>0.2329784006075822</v>
       </c>
       <c r="N64" t="n">
-        <v>0.3081510442056221</v>
+        <v>0.3081510442055327</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0003195000000033588</v>
+        <v>0.0001932999999993967</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>1.069489326759043</v>
       </c>
       <c r="F65" t="n">
-        <v>8.581924755967119</v>
+        <v>8.581924755966361</v>
       </c>
       <c r="G65" t="n">
-        <v>101.5548736352713</v>
+        <v>101.5548736352696</v>
       </c>
       <c r="H65" t="n">
-        <v>5.65163561366197</v>
+        <v>5.651635613661218</v>
       </c>
       <c r="I65" t="n">
         <v>60.6583617383578</v>
@@ -3823,16 +3823,16 @@
         <v>11.86528034063046</v>
       </c>
       <c r="K65" t="n">
-        <v>59.99384910978136</v>
+        <v>59.99384910978076</v>
       </c>
       <c r="L65" t="n">
-        <v>9.209481836338245</v>
+        <v>9.209481836337311</v>
       </c>
       <c r="M65" t="n">
-        <v>0.3573125966488744</v>
+        <v>0.3573125966489286</v>
       </c>
       <c r="N65" t="n">
-        <v>1.263375626105225</v>
+        <v>1.263375626105699</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0002968999999950483</v>
+        <v>0.0001829999999998222</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>359.4498385303842</v>
       </c>
       <c r="F66" t="n">
-        <v>9.292682090109196</v>
+        <v>9.292682090107215</v>
       </c>
       <c r="G66" t="n">
-        <v>66.43887953029579</v>
+        <v>66.4388795302926</v>
       </c>
       <c r="H66" t="n">
-        <v>9.379818209289681</v>
+        <v>9.379818209287116</v>
       </c>
       <c r="I66" t="n">
         <v>45.8459076388655</v>
@@ -3875,16 +3875,16 @@
         <v>16.86218162216168</v>
       </c>
       <c r="K66" t="n">
-        <v>45.56733001002592</v>
+        <v>45.56733001002501</v>
       </c>
       <c r="L66" t="n">
-        <v>15.9628645703207</v>
+        <v>15.96286457031668</v>
       </c>
       <c r="M66" t="n">
-        <v>0.349261384364085</v>
+        <v>0.3492613843642639</v>
       </c>
       <c r="N66" t="n">
-        <v>0.3119575905984777</v>
+        <v>0.3119575905998371</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0002932000000015478</v>
+        <v>0.0001852000000006626</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.4168324115663374</v>
       </c>
       <c r="F67" t="n">
-        <v>9.838307366203365</v>
+        <v>9.838307366203226</v>
       </c>
       <c r="G67" t="n">
-        <v>40.84527233225423</v>
+        <v>40.84527233225291</v>
       </c>
       <c r="H67" t="n">
-        <v>2.705855093049823</v>
+        <v>2.705855093049834</v>
       </c>
       <c r="I67" t="n">
         <v>19.57687427078943</v>
@@ -3927,16 +3927,16 @@
         <v>11.16212898988536</v>
       </c>
       <c r="K67" t="n">
-        <v>19.17576554118635</v>
+        <v>19.17576554118624</v>
       </c>
       <c r="L67" t="n">
-        <v>10.24651389544602</v>
+        <v>10.24651389544593</v>
       </c>
       <c r="M67" t="n">
-        <v>0.2691270806516518</v>
+        <v>0.2691270806516575</v>
       </c>
       <c r="N67" t="n">
-        <v>0.7709714533442632</v>
+        <v>0.7709714533442713</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003198999999938223</v>
+        <v>0.0002389999999969916</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>359.2921928179678</v>
       </c>
       <c r="F68" t="n">
-        <v>9.285260508621194</v>
+        <v>9.285260508621214</v>
       </c>
       <c r="G68" t="n">
-        <v>25.22874506686295</v>
+        <v>25.22874506686282</v>
       </c>
       <c r="H68" t="n">
-        <v>5.249361038918926</v>
+        <v>5.249361038919098</v>
       </c>
       <c r="I68" t="n">
         <v>16.96964631110587</v>
@@ -3979,16 +3979,16 @@
         <v>12.83113260813786</v>
       </c>
       <c r="K68" t="n">
-        <v>16.82975480082296</v>
+        <v>16.829754800823</v>
       </c>
       <c r="L68" t="n">
-        <v>12.91992991669161</v>
+        <v>12.91992991669184</v>
       </c>
       <c r="M68" t="n">
-        <v>0.3033269478342738</v>
+        <v>0.3033269478342654</v>
       </c>
       <c r="N68" t="n">
-        <v>0.4602730535608108</v>
+        <v>0.4602730535609287</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003361999999924592</v>
+        <v>0.000193899999999303</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>359.4357389238899</v>
       </c>
       <c r="F69" t="n">
-        <v>8.372097976882834</v>
+        <v>8.37209797688207</v>
       </c>
       <c r="G69" t="n">
-        <v>96.10716780032918</v>
+        <v>96.10716780032826</v>
       </c>
       <c r="H69" t="n">
-        <v>10.88823554394559</v>
+        <v>10.88823554394431</v>
       </c>
       <c r="I69" t="n">
         <v>73.30159050095429</v>
@@ -4031,16 +4031,16 @@
         <v>17.71985515776622</v>
       </c>
       <c r="K69" t="n">
-        <v>72.77451200194329</v>
+        <v>72.77451200194305</v>
       </c>
       <c r="L69" t="n">
-        <v>14.74091263235172</v>
+        <v>14.74091263235017</v>
       </c>
       <c r="M69" t="n">
-        <v>0.3942444305083148</v>
+        <v>0.3942444305084051</v>
       </c>
       <c r="N69" t="n">
-        <v>0.9199156396244927</v>
+        <v>0.9199156396249599</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0002909999999900492</v>
+        <v>0.000181399999998888</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.4722381821858267</v>
       </c>
       <c r="F70" t="n">
-        <v>9.792561336202722</v>
+        <v>9.792561336202569</v>
       </c>
       <c r="G70" t="n">
-        <v>50.40351742267144</v>
+        <v>50.40351742267022</v>
       </c>
       <c r="H70" t="n">
-        <v>2.669455945510429</v>
+        <v>2.669455945510392</v>
       </c>
       <c r="I70" t="n">
         <v>22.43075918953557</v>
@@ -4083,16 +4083,16 @@
         <v>11.12306944814092</v>
       </c>
       <c r="K70" t="n">
-        <v>21.97518621150706</v>
+        <v>21.97518621150691</v>
       </c>
       <c r="L70" t="n">
-        <v>9.939768970562577</v>
+        <v>9.939768970562429</v>
       </c>
       <c r="M70" t="n">
-        <v>0.2872918807672996</v>
+        <v>0.2872918807673079</v>
       </c>
       <c r="N70" t="n">
-        <v>0.9883725308591649</v>
+        <v>0.9883725308592251</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003544000000061942</v>
+        <v>0.0001929999999994436</v>
       </c>
     </row>
     <row r="71">
@@ -4120,31 +4120,31 @@
         <v>359.5422464507259</v>
       </c>
       <c r="F71" t="n">
-        <v>8.950617396743882</v>
+        <v>8.950617396744763</v>
       </c>
       <c r="G71" t="n">
-        <v>51.57626203851521</v>
+        <v>51.57626203851652</v>
       </c>
       <c r="H71" t="n">
-        <v>11.65035805405537</v>
+        <v>11.65035805405676</v>
       </c>
       <c r="I71" t="n">
-        <v>39.09766949772916</v>
+        <v>39.09766949772915</v>
       </c>
       <c r="J71" t="n">
         <v>21.2511977384674</v>
       </c>
       <c r="K71" t="n">
-        <v>38.73828551263674</v>
+        <v>38.73828551263712</v>
       </c>
       <c r="L71" t="n">
-        <v>19.25920648726047</v>
+        <v>19.25920648726272</v>
       </c>
       <c r="M71" t="n">
-        <v>0.3171599010387952</v>
+        <v>0.3171599010387253</v>
       </c>
       <c r="N71" t="n">
-        <v>0.4979991872214231</v>
+        <v>0.4979991872208411</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003250000000036835</v>
+        <v>0.0001846000000007564</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.574501295849</v>
       </c>
       <c r="F72" t="n">
-        <v>9.641297964013441</v>
+        <v>9.641297964014434</v>
       </c>
       <c r="G72" t="n">
-        <v>166.675629530687</v>
+        <v>166.6756295306865</v>
       </c>
       <c r="H72" t="n">
-        <v>12.9450256455469</v>
+        <v>12.94502564554852</v>
       </c>
       <c r="I72" t="n">
         <v>150.0337683635548</v>
@@ -4187,16 +4187,16 @@
         <v>9.651912212970135</v>
       </c>
       <c r="K72" t="n">
-        <v>149.9605640893266</v>
+        <v>149.960564089326</v>
       </c>
       <c r="L72" t="n">
-        <v>9.346628879440845</v>
+        <v>9.34662887944188</v>
       </c>
       <c r="M72" t="n">
-        <v>0.3476047566799192</v>
+        <v>0.3476047566798111</v>
       </c>
       <c r="N72" t="n">
-        <v>0.175064497869616</v>
+        <v>0.1750644978692948</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003078999999956977</v>
+        <v>0.0002317000000005009</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.2153015748648967</v>
       </c>
       <c r="F73" t="n">
-        <v>9.687795561159286</v>
+        <v>9.687795561159263</v>
       </c>
       <c r="G73" t="n">
-        <v>33.22900874489523</v>
+        <v>33.22900874489529</v>
       </c>
       <c r="H73" t="n">
-        <v>6.75350967754247</v>
+        <v>6.753509677542384</v>
       </c>
       <c r="I73" t="n">
         <v>22.46395608561936</v>
@@ -4239,16 +4239,16 @@
         <v>16.27104575612665</v>
       </c>
       <c r="K73" t="n">
-        <v>22.184403902287</v>
+        <v>22.18440390228699</v>
       </c>
       <c r="L73" t="n">
-        <v>14.95769981201233</v>
+        <v>14.9576998120122</v>
       </c>
       <c r="M73" t="n">
-        <v>0.260093456920841</v>
+        <v>0.2600934569208446</v>
       </c>
       <c r="N73" t="n">
-        <v>0.4986275445739043</v>
+        <v>0.4986275445739439</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003291999999959216</v>
+        <v>0.0002083999999982211</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.8407272504671</v>
       </c>
       <c r="F74" t="n">
-        <v>9.394854587498756</v>
+        <v>9.394854587498822</v>
       </c>
       <c r="G74" t="n">
-        <v>18.41994501672319</v>
+        <v>18.4199450167232</v>
       </c>
       <c r="H74" t="n">
-        <v>10.72913884430745</v>
+        <v>10.72913884430811</v>
       </c>
       <c r="I74" t="n">
         <v>15.57133329969279</v>
@@ -4291,16 +4291,16 @@
         <v>20.85419847183129</v>
       </c>
       <c r="K74" t="n">
-        <v>15.34615450331513</v>
+        <v>15.3461545033152</v>
       </c>
       <c r="L74" t="n">
-        <v>19.69605934235668</v>
+        <v>19.69605934235753</v>
       </c>
       <c r="M74" t="n">
-        <v>0.2704945370087908</v>
+        <v>0.2704945370087695</v>
       </c>
       <c r="N74" t="n">
-        <v>0.2763663778325607</v>
+        <v>0.2763663778323235</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.000370499999988283</v>
+        <v>0.0001920999999995843</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.711593474345</v>
       </c>
       <c r="F75" t="n">
-        <v>9.34642320035265</v>
+        <v>9.346423200356869</v>
       </c>
       <c r="G75" t="n">
-        <v>114.8517015687332</v>
+        <v>114.8517015687357</v>
       </c>
       <c r="H75" t="n">
-        <v>8.721704588001639</v>
+        <v>8.721704588007182</v>
       </c>
       <c r="I75" t="n">
         <v>77.81913838663891</v>
@@ -4343,16 +4343,16 @@
         <v>11.66724248977646</v>
       </c>
       <c r="K75" t="n">
-        <v>77.61880715099238</v>
+        <v>77.61880715099373</v>
       </c>
       <c r="L75" t="n">
-        <v>10.87316324178374</v>
+        <v>10.87316324178964</v>
       </c>
       <c r="M75" t="n">
-        <v>0.2713788858101005</v>
+        <v>0.2713788858098171</v>
       </c>
       <c r="N75" t="n">
-        <v>0.3802795229604663</v>
+        <v>0.380279522957763</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0002910999999983233</v>
+        <v>0.0001841000000020188</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.6958272530962</v>
       </c>
       <c r="F76" t="n">
-        <v>9.257648254893775</v>
+        <v>9.257648254893223</v>
       </c>
       <c r="G76" t="n">
-        <v>35.39311950789043</v>
+        <v>35.39311950788958</v>
       </c>
       <c r="H76" t="n">
-        <v>11.60661850297583</v>
+        <v>11.606618502975</v>
       </c>
       <c r="I76" t="n">
         <v>27.32317301036183</v>
@@ -4395,16 +4395,16 @@
         <v>21.80818795837916</v>
       </c>
       <c r="K76" t="n">
-        <v>27.04835432754155</v>
+        <v>27.04835432754128</v>
       </c>
       <c r="L76" t="n">
-        <v>20.20515486061915</v>
+        <v>20.20515486061771</v>
       </c>
       <c r="M76" t="n">
-        <v>0.2584538406672723</v>
+        <v>0.2584538406673106</v>
       </c>
       <c r="N76" t="n">
-        <v>0.3789995436109729</v>
+        <v>0.3789995436113348</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0002989000000042097</v>
+        <v>0.0002382999999994695</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.3547510669880397</v>
       </c>
       <c r="F77" t="n">
-        <v>9.65576287818971</v>
+        <v>9.655762878190011</v>
       </c>
       <c r="G77" t="n">
-        <v>106.7404139293776</v>
+        <v>106.7404139293787</v>
       </c>
       <c r="H77" t="n">
-        <v>3.364573825382948</v>
+        <v>3.364573825383137</v>
       </c>
       <c r="I77" t="n">
         <v>41.23088095385175</v>
@@ -4447,16 +4447,16 @@
         <v>8.517806771190989</v>
       </c>
       <c r="K77" t="n">
-        <v>40.93579258230414</v>
+        <v>40.93579258230446</v>
       </c>
       <c r="L77" t="n">
-        <v>7.778565529298448</v>
+        <v>7.778565529298699</v>
       </c>
       <c r="M77" t="n">
-        <v>0.2705626611332061</v>
+        <v>0.2705626611331876</v>
       </c>
       <c r="N77" t="n">
-        <v>0.6082412370901609</v>
+        <v>0.608241237089936</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0004490999999973155</v>
+        <v>0.0002072999999995773</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.5298493446405</v>
       </c>
       <c r="F78" t="n">
-        <v>9.082994471754237</v>
+        <v>9.082994471755011</v>
       </c>
       <c r="G78" t="n">
-        <v>54.6392494557805</v>
+        <v>54.63924945578157</v>
       </c>
       <c r="H78" t="n">
-        <v>11.81462375253256</v>
+        <v>11.81462375253383</v>
       </c>
       <c r="I78" t="n">
         <v>41.02759868558736</v>
@@ -4499,16 +4499,16 @@
         <v>21.21280471567252</v>
       </c>
       <c r="K78" t="n">
-        <v>40.78707257195619</v>
+        <v>40.78707257195652</v>
       </c>
       <c r="L78" t="n">
-        <v>19.37705951626073</v>
+        <v>19.37705951626273</v>
       </c>
       <c r="M78" t="n">
-        <v>0.2940668169256568</v>
+        <v>0.2940668169255881</v>
       </c>
       <c r="N78" t="n">
-        <v>0.4345823730718233</v>
+        <v>0.434582373071306</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0002985999999935984</v>
+        <v>0.0002186999999977957</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.8877775739622</v>
       </c>
       <c r="F79" t="n">
-        <v>9.535779754461476</v>
+        <v>9.535779754456643</v>
       </c>
       <c r="G79" t="n">
-        <v>165.584027397654</v>
+        <v>165.5840273976575</v>
       </c>
       <c r="H79" t="n">
-        <v>10.08532889017171</v>
+        <v>10.08532889016507</v>
       </c>
       <c r="I79" t="n">
         <v>138.9401716507728</v>
@@ -4551,16 +4551,16 @@
         <v>6.69919649565565</v>
       </c>
       <c r="K79" t="n">
-        <v>139.0644400657978</v>
+        <v>139.0644400658003</v>
       </c>
       <c r="L79" t="n">
-        <v>6.356418670845302</v>
+        <v>6.356418670841498</v>
       </c>
       <c r="M79" t="n">
-        <v>0.2656554203489497</v>
+        <v>0.2656554203492337</v>
       </c>
       <c r="N79" t="n">
-        <v>0.2649672036507761</v>
+        <v>0.2649672036539854</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0002934999999979482</v>
+        <v>0.0001840000000008502</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.9389769313877</v>
       </c>
       <c r="F80" t="n">
-        <v>9.755965449467206</v>
+        <v>9.755965449467254</v>
       </c>
       <c r="G80" t="n">
-        <v>8.273228897481298</v>
+        <v>8.273228897481234</v>
       </c>
       <c r="H80" t="n">
-        <v>10.10755339487129</v>
+        <v>10.10755339487088</v>
       </c>
       <c r="I80" t="n">
         <v>8.792537788842502</v>
@@ -4603,16 +4603,16 @@
         <v>20.88161751407274</v>
       </c>
       <c r="K80" t="n">
-        <v>8.630254019250851</v>
+        <v>8.630254019250801</v>
       </c>
       <c r="L80" t="n">
-        <v>19.36166253876484</v>
+        <v>19.3616625387644</v>
       </c>
       <c r="M80" t="n">
-        <v>0.270254568227166</v>
+        <v>0.2702545682271762</v>
       </c>
       <c r="N80" t="n">
-        <v>0.4099762941970643</v>
+        <v>0.4099762941972064</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003221999999993841</v>
+        <v>0.0001875000000026716</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>1.658179410385036</v>
       </c>
       <c r="F81" t="n">
-        <v>8.117946715927628</v>
+        <v>8.117946715928303</v>
       </c>
       <c r="G81" t="n">
-        <v>91.37670644836561</v>
+        <v>91.37670644836673</v>
       </c>
       <c r="H81" t="n">
-        <v>5.53834995692327</v>
+        <v>5.538349956924035</v>
       </c>
       <c r="I81" t="n">
         <v>57.39789300421757</v>
@@ -4655,16 +4655,16 @@
         <v>13.66352932901044</v>
       </c>
       <c r="K81" t="n">
-        <v>56.44713782001845</v>
+        <v>56.44713782001893</v>
       </c>
       <c r="L81" t="n">
-        <v>9.658856914633594</v>
+        <v>9.658856914634663</v>
       </c>
       <c r="M81" t="n">
-        <v>0.5115847823929287</v>
+        <v>0.5115847823928528</v>
       </c>
       <c r="N81" t="n">
-        <v>1.650741913498963</v>
+        <v>1.650741913498518</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002960000000058471</v>
+        <v>0.0002405999999979258</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>359.0500735319259</v>
       </c>
       <c r="F82" t="n">
-        <v>9.224326880066933</v>
+        <v>9.22432688006832</v>
       </c>
       <c r="G82" t="n">
-        <v>92.26151147790287</v>
+        <v>92.26151147790451</v>
       </c>
       <c r="H82" t="n">
-        <v>10.70903865062878</v>
+        <v>10.70903865063085</v>
       </c>
       <c r="I82" t="n">
         <v>66.48783954982605</v>
@@ -4707,16 +4707,16 @@
         <v>16.15039452812126</v>
       </c>
       <c r="K82" t="n">
-        <v>66.24387524659564</v>
+        <v>66.24387524659612</v>
       </c>
       <c r="L82" t="n">
-        <v>15.14131239210153</v>
+        <v>15.14131239210413</v>
       </c>
       <c r="M82" t="n">
-        <v>0.3877854449024662</v>
+        <v>0.3877854449023294</v>
       </c>
       <c r="N82" t="n">
-        <v>0.3572661000928908</v>
+        <v>0.3572661000920011</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0002920000000017353</v>
+        <v>0.0001882000000001938</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0.67995017110934</v>
       </c>
       <c r="F83" t="n">
-        <v>9.524722603656903</v>
+        <v>9.524722603657134</v>
       </c>
       <c r="G83" t="n">
-        <v>65.4151692604003</v>
+        <v>65.41516926040056</v>
       </c>
       <c r="H83" t="n">
-        <v>5.922874415414105</v>
+        <v>5.922874415414365</v>
       </c>
       <c r="I83" t="n">
         <v>38.4159118793041</v>
@@ -4759,16 +4759,16 @@
         <v>14.1881020213233</v>
       </c>
       <c r="K83" t="n">
-        <v>38.14215142261968</v>
+        <v>38.14215142261982</v>
       </c>
       <c r="L83" t="n">
-        <v>12.54280101401094</v>
+        <v>12.54280101401139</v>
       </c>
       <c r="M83" t="n">
-        <v>0.2901160643189507</v>
+        <v>0.2901160643189347</v>
       </c>
       <c r="N83" t="n">
-        <v>0.7092999891436444</v>
+        <v>0.7092999891434633</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003397000000120443</v>
+        <v>0.0002057999999998117</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.579674798622</v>
       </c>
       <c r="F84" t="n">
-        <v>9.205424306186856</v>
+        <v>9.20542430618803</v>
       </c>
       <c r="G84" t="n">
-        <v>47.94339088106577</v>
+        <v>47.94339088106742</v>
       </c>
       <c r="H84" t="n">
-        <v>10.1268298060761</v>
+        <v>10.12682980607789</v>
       </c>
       <c r="I84" t="n">
         <v>34.81590641774923</v>
@@ -4811,16 +4811,16 @@
         <v>19.11454519061216</v>
       </c>
       <c r="K84" t="n">
-        <v>34.50705243060807</v>
+        <v>34.5070524306086</v>
       </c>
       <c r="L84" t="n">
-        <v>17.87394374137179</v>
+        <v>17.87394374137476</v>
       </c>
       <c r="M84" t="n">
-        <v>0.3098290951062591</v>
+        <v>0.3098290951061531</v>
       </c>
       <c r="N84" t="n">
-        <v>0.352753554522365</v>
+        <v>0.3527535545215174</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003039999999998599</v>
+        <v>0.0002724999999976774</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.5753435569815</v>
       </c>
       <c r="F85" t="n">
-        <v>9.137605849415486</v>
+        <v>9.137605849414829</v>
       </c>
       <c r="G85" t="n">
-        <v>44.75385010400619</v>
+        <v>44.75385010400512</v>
       </c>
       <c r="H85" t="n">
-        <v>10.49654043926834</v>
+        <v>10.49654043926741</v>
       </c>
       <c r="I85" t="n">
         <v>33.13287081288786</v>
@@ -4863,16 +4863,16 @@
         <v>19.91760304290331</v>
       </c>
       <c r="K85" t="n">
-        <v>32.81040703572658</v>
+        <v>32.81040703572627</v>
       </c>
       <c r="L85" t="n">
-        <v>18.40139103395475</v>
+        <v>18.40139103395315</v>
       </c>
       <c r="M85" t="n">
-        <v>0.2930494908779797</v>
+        <v>0.2930494908780326</v>
       </c>
       <c r="N85" t="n">
-        <v>0.4034963016711074</v>
+        <v>0.4034963016715521</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0002931000000074846</v>
+        <v>0.0001924999999971533</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.06580610098779141</v>
       </c>
       <c r="F86" t="n">
-        <v>9.629273397952453</v>
+        <v>9.62927339795238</v>
       </c>
       <c r="G86" t="n">
-        <v>7.285117175285874</v>
+        <v>7.285117175285734</v>
       </c>
       <c r="H86" t="n">
-        <v>7.172261632632141</v>
+        <v>7.172261632632145</v>
       </c>
       <c r="I86" t="n">
         <v>8.615529210004841</v>
@@ -4915,16 +4915,16 @@
         <v>16.40699998673912</v>
       </c>
       <c r="K86" t="n">
-        <v>8.315818784573384</v>
+        <v>8.315818784573333</v>
       </c>
       <c r="L86" t="n">
-        <v>15.71537316309684</v>
+        <v>15.71537316309677</v>
       </c>
       <c r="M86" t="n">
-        <v>0.2927158349272845</v>
+        <v>0.2927158349272871</v>
       </c>
       <c r="N86" t="n">
-        <v>0.261148840131088</v>
+        <v>0.2611488401311114</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0002959999999916363</v>
+        <v>0.000239499999999282</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.9115746394606</v>
       </c>
       <c r="F87" t="n">
-        <v>9.110720179238575</v>
+        <v>9.11072017923917</v>
       </c>
       <c r="G87" t="n">
-        <v>110.8086411972003</v>
+        <v>110.8086411972007</v>
       </c>
       <c r="H87" t="n">
-        <v>8.02830532673871</v>
+        <v>8.028305326739478</v>
       </c>
       <c r="I87" t="n">
         <v>73.53144854422638</v>
@@ -4967,16 +4967,16 @@
         <v>11.81175051977503</v>
       </c>
       <c r="K87" t="n">
-        <v>73.18023989173024</v>
+        <v>73.18023989173044</v>
       </c>
       <c r="L87" t="n">
-        <v>10.61611657126979</v>
+        <v>10.61611657127066</v>
       </c>
       <c r="M87" t="n">
-        <v>0.2912462091003722</v>
+        <v>0.2912462091003278</v>
       </c>
       <c r="N87" t="n">
-        <v>0.5741977647157305</v>
+        <v>0.574197764715331</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003245000000049458</v>
+        <v>0.0001986000000009369</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.2981428594836462</v>
       </c>
       <c r="F88" t="n">
-        <v>9.749443401344417</v>
+        <v>9.749443401344463</v>
       </c>
       <c r="G88" t="n">
-        <v>37.02045004459995</v>
+        <v>37.02045004460006</v>
       </c>
       <c r="H88" t="n">
-        <v>4.651242381208547</v>
+        <v>4.651242381208587</v>
       </c>
       <c r="I88" t="n">
         <v>21.84848718910419</v>
@@ -5019,16 +5019,16 @@
         <v>13.65786460130007</v>
       </c>
       <c r="K88" t="n">
-        <v>21.57120009158108</v>
+        <v>21.5712000915811</v>
       </c>
       <c r="L88" t="n">
-        <v>12.46215858742902</v>
+        <v>12.46215858742911</v>
       </c>
       <c r="M88" t="n">
-        <v>0.271248068036935</v>
+        <v>0.2712480680369321</v>
       </c>
       <c r="N88" t="n">
-        <v>0.6090759782662896</v>
+        <v>0.6090759782662558</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0002956000000011727</v>
+        <v>0.0001885000000001469</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.8138122395735</v>
       </c>
       <c r="F89" t="n">
-        <v>6.95060776897876</v>
+        <v>6.950607768988522</v>
       </c>
       <c r="G89" t="n">
-        <v>116.1884394124956</v>
+        <v>116.1884394125052</v>
       </c>
       <c r="H89" t="n">
-        <v>9.019883727970873</v>
+        <v>9.019883727988384</v>
       </c>
       <c r="I89" t="n">
         <v>92.7668218217183</v>
@@ -5071,16 +5071,16 @@
         <v>16.49115940110462</v>
       </c>
       <c r="K89" t="n">
-        <v>92.33382158585952</v>
+        <v>92.33382158586166</v>
       </c>
       <c r="L89" t="n">
-        <v>10.86964703291128</v>
+        <v>10.86964703292933</v>
       </c>
       <c r="M89" t="n">
-        <v>0.4730122908081242</v>
+        <v>0.4730122908062138</v>
       </c>
       <c r="N89" t="n">
-        <v>1.665279888401107</v>
+        <v>1.665279888395482</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002871000000084223</v>
+        <v>0.0002798000000012735</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.9465578479241</v>
       </c>
       <c r="F90" t="n">
-        <v>9.153172248470561</v>
+        <v>9.153172248475993</v>
       </c>
       <c r="G90" t="n">
-        <v>116.0113419257207</v>
+        <v>116.0113419257241</v>
       </c>
       <c r="H90" t="n">
-        <v>8.024654325219581</v>
+        <v>8.024654325226454</v>
       </c>
       <c r="I90" t="n">
         <v>77.06502614626034</v>
@@ -5123,16 +5123,16 @@
         <v>11.20723949811577</v>
       </c>
       <c r="K90" t="n">
-        <v>76.73685630622865</v>
+        <v>76.73685630623075</v>
       </c>
       <c r="L90" t="n">
-        <v>10.08509796114162</v>
+        <v>10.08509796114889</v>
       </c>
       <c r="M90" t="n">
-        <v>0.2846711458093946</v>
+        <v>0.2846711458090226</v>
       </c>
       <c r="N90" t="n">
-        <v>0.5545943584308075</v>
+        <v>0.5545943584272253</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003157999999956473</v>
+        <v>0.0002631000000015149</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0.8468650132735551</v>
       </c>
       <c r="F91" t="n">
-        <v>9.147209203141589</v>
+        <v>9.147209203142504</v>
       </c>
       <c r="G91" t="n">
-        <v>92.66697636861721</v>
+        <v>92.66697636861946</v>
       </c>
       <c r="H91" t="n">
-        <v>4.773541358533023</v>
+        <v>4.773541358533781</v>
       </c>
       <c r="I91" t="n">
         <v>48.84601329812367</v>
@@ -5175,16 +5175,16 @@
         <v>11.23051578470421</v>
       </c>
       <c r="K91" t="n">
-        <v>48.29154844265769</v>
+        <v>48.29154844265845</v>
       </c>
       <c r="L91" t="n">
-        <v>9.413688487347109</v>
+        <v>9.413688487348221</v>
       </c>
       <c r="M91" t="n">
-        <v>0.3226725792973375</v>
+        <v>0.3226725792972739</v>
       </c>
       <c r="N91" t="n">
-        <v>1.010657667983264</v>
+        <v>1.010657667982658</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0003687000000098806</v>
+        <v>0.0001934000000005653</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.1122433340996691</v>
       </c>
       <c r="F92" t="n">
-        <v>9.62446494722318</v>
+        <v>9.624464947223098</v>
       </c>
       <c r="G92" t="n">
-        <v>26.34859181544693</v>
+        <v>26.3485918154465</v>
       </c>
       <c r="H92" t="n">
-        <v>4.437667594199313</v>
+        <v>4.437667594199342</v>
       </c>
       <c r="I92" t="n">
         <v>17.15395993153109</v>
@@ -5227,16 +5227,16 @@
         <v>13.17470023696191</v>
       </c>
       <c r="K92" t="n">
-        <v>16.78302613293441</v>
+        <v>16.78302613293435</v>
       </c>
       <c r="L92" t="n">
-        <v>12.30414590515405</v>
+        <v>12.30414590515402</v>
       </c>
       <c r="M92" t="n">
-        <v>0.2808784717445745</v>
+        <v>0.2808784717445766</v>
       </c>
       <c r="N92" t="n">
-        <v>0.465179083182195</v>
+        <v>0.4651790831822091</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0002927999999968733</v>
+        <v>0.0001867000000004282</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.3030605088673829</v>
       </c>
       <c r="F93" t="n">
-        <v>9.620950345146991</v>
+        <v>9.620950345147378</v>
       </c>
       <c r="G93" t="n">
-        <v>36.04409522716154</v>
+        <v>36.04409522716269</v>
       </c>
       <c r="H93" t="n">
-        <v>5.996293181119549</v>
+        <v>5.996293181119823</v>
       </c>
       <c r="I93" t="n">
         <v>23.34892049549794</v>
@@ -5279,16 +5279,16 @@
         <v>15.37253312835461</v>
       </c>
       <c r="K93" t="n">
-        <v>23.04702387938886</v>
+        <v>23.04702387938912</v>
       </c>
       <c r="L93" t="n">
-        <v>13.93473716067655</v>
+        <v>13.9347371606772</v>
       </c>
       <c r="M93" t="n">
-        <v>0.255566965181575</v>
+        <v>0.2555669651815568</v>
       </c>
       <c r="N93" t="n">
-        <v>0.5772869971474813</v>
+        <v>0.5772869971472208</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003249999999894726</v>
+        <v>0.0002045999999999992</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.8848503791089</v>
       </c>
       <c r="F94" t="n">
-        <v>9.641221452173777</v>
+        <v>9.641221452167903</v>
       </c>
       <c r="G94" t="n">
-        <v>159.5258960464153</v>
+        <v>159.5258960464179</v>
       </c>
       <c r="H94" t="n">
-        <v>11.92063885207049</v>
+        <v>11.9206388520614</v>
       </c>
       <c r="I94" t="n">
         <v>135.8914103371119</v>
@@ -5331,16 +5331,16 @@
         <v>9.221215218233809</v>
       </c>
       <c r="K94" t="n">
-        <v>136.0133264560083</v>
+        <v>136.0133264560104</v>
       </c>
       <c r="L94" t="n">
-        <v>8.862110391691669</v>
+        <v>8.86211039168564</v>
       </c>
       <c r="M94" t="n">
-        <v>0.2435569300222726</v>
+        <v>0.243556930022643</v>
       </c>
       <c r="N94" t="n">
-        <v>0.2058599266692845</v>
+        <v>0.205859926672789</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0002924000000064098</v>
+        <v>0.0001828999999986536</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>359.1849009598281</v>
       </c>
       <c r="F95" t="n">
-        <v>9.117980264731823</v>
+        <v>9.117980264734753</v>
       </c>
       <c r="G95" t="n">
-        <v>107.3560925802032</v>
+        <v>107.3560925802056</v>
       </c>
       <c r="H95" t="n">
-        <v>9.969945486371479</v>
+        <v>9.969945486375776</v>
       </c>
       <c r="I95" t="n">
         <v>77.08991880558148</v>
@@ -5383,16 +5383,16 @@
         <v>13.86645042167153</v>
       </c>
       <c r="K95" t="n">
-        <v>76.75953629897978</v>
+        <v>76.75953629898068</v>
       </c>
       <c r="L95" t="n">
-        <v>12.8002149672915</v>
+        <v>12.80021496729631</v>
       </c>
       <c r="M95" t="n">
-        <v>0.3593781718936632</v>
+        <v>0.359378171893377</v>
       </c>
       <c r="N95" t="n">
-        <v>0.4666877601257648</v>
+        <v>0.4666877601239202</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.000286000000002673</v>
+        <v>0.0003210999999971875</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.6282733922433</v>
       </c>
       <c r="F96" t="n">
-        <v>8.76047724291972</v>
+        <v>8.760477242924871</v>
       </c>
       <c r="G96" t="n">
-        <v>128.5314537317999</v>
+        <v>128.5314537318014</v>
       </c>
       <c r="H96" t="n">
-        <v>8.679811531790591</v>
+        <v>8.67981153179778</v>
       </c>
       <c r="I96" t="n">
         <v>92.4963307677606</v>
@@ -5435,16 +5435,16 @@
         <v>10.70698393477249</v>
       </c>
       <c r="K96" t="n">
-        <v>92.13033677771776</v>
+        <v>92.13033677771887</v>
       </c>
       <c r="L96" t="n">
-        <v>9.267932206666586</v>
+        <v>9.26793220667315</v>
       </c>
       <c r="M96" t="n">
-        <v>0.3389478499960381</v>
+        <v>0.3389478499955653</v>
       </c>
       <c r="N96" t="n">
-        <v>0.7299696755670373</v>
+        <v>0.7299696755639473</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0008229999999969095</v>
+        <v>0.0001852000000006626</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.3321444497762412</v>
       </c>
       <c r="F97" t="n">
-        <v>9.74710217840763</v>
+        <v>9.747102178407614</v>
       </c>
       <c r="G97" t="n">
-        <v>41.56510117320649</v>
+        <v>41.56510117320629</v>
       </c>
       <c r="H97" t="n">
-        <v>4.578139402936863</v>
+        <v>4.578139402936893</v>
       </c>
       <c r="I97" t="n">
         <v>23.74542453059524</v>
@@ -5490,13 +5490,13 @@
         <v>23.43212564974246</v>
       </c>
       <c r="L97" t="n">
-        <v>12.2513742786155</v>
+        <v>12.25137427861553</v>
       </c>
       <c r="M97" t="n">
-        <v>0.2547816636693017</v>
+        <v>0.2547816636693012</v>
       </c>
       <c r="N97" t="n">
-        <v>0.5531100461745375</v>
+        <v>0.5531100461745149</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003197999999997592</v>
+        <v>0.0001872999999967817</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.965076112617</v>
       </c>
       <c r="F98" t="n">
-        <v>9.157291956548857</v>
+        <v>9.157291956547239</v>
       </c>
       <c r="G98" t="n">
-        <v>37.68666176305101</v>
+        <v>37.68666176304876</v>
       </c>
       <c r="H98" t="n">
-        <v>12.43956697071594</v>
+        <v>12.43956697071328</v>
       </c>
       <c r="I98" t="n">
         <v>29.58813609103335</v>
@@ -5539,16 +5539,16 @@
         <v>23.48744640074011</v>
       </c>
       <c r="K98" t="n">
-        <v>29.27834709544576</v>
+        <v>29.27834709544506</v>
       </c>
       <c r="L98" t="n">
-        <v>21.04206234112791</v>
+        <v>21.04206234112342</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2748442442144671</v>
+        <v>0.2748442442145876</v>
       </c>
       <c r="N98" t="n">
-        <v>0.5398194376819756</v>
+        <v>0.5398194376830064</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0002991000000065469</v>
+        <v>0.0001955000000002372</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0.875593875646003</v>
       </c>
       <c r="F99" t="n">
-        <v>8.822442113904291</v>
+        <v>8.822442113899619</v>
       </c>
       <c r="G99" t="n">
-        <v>151.7532124193729</v>
+        <v>151.7532124193743</v>
       </c>
       <c r="H99" t="n">
-        <v>12.38346335875784</v>
+        <v>12.38346335874963</v>
       </c>
       <c r="I99" t="n">
         <v>129.036147186146</v>
@@ -5591,16 +5591,16 @@
         <v>12.59476915243944</v>
       </c>
       <c r="K99" t="n">
-        <v>129.5494026397731</v>
+        <v>129.5494026397744</v>
       </c>
       <c r="L99" t="n">
-        <v>10.81364907487171</v>
+        <v>10.81364907486537</v>
       </c>
       <c r="M99" t="n">
-        <v>0.4904092844678616</v>
+        <v>0.4904092844684576</v>
       </c>
       <c r="N99" t="n">
-        <v>0.7773376282482931</v>
+        <v>0.7773376282509097</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0002944000000013602</v>
+        <v>0.00027080000000268</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.7631414593671</v>
       </c>
       <c r="F100" t="n">
-        <v>8.649688105454814</v>
+        <v>8.649688105442248</v>
       </c>
       <c r="G100" t="n">
-        <v>131.2291246795741</v>
+        <v>131.2291246795722</v>
       </c>
       <c r="H100" t="n">
-        <v>8.060275093155225</v>
+        <v>8.060275093138321</v>
       </c>
       <c r="I100" t="n">
         <v>92.65513206400841</v>
@@ -5643,16 +5643,16 @@
         <v>9.952434050938109</v>
       </c>
       <c r="K100" t="n">
-        <v>92.32561728703418</v>
+        <v>92.32561728703128</v>
       </c>
       <c r="L100" t="n">
-        <v>8.41599449223393</v>
+        <v>8.415994492218902</v>
       </c>
       <c r="M100" t="n">
-        <v>0.3614000609719443</v>
+        <v>0.3614000609731741</v>
       </c>
       <c r="N100" t="n">
-        <v>0.7992720079693545</v>
+        <v>0.7992720079769515</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003140999999970973</v>
+        <v>0.0003123999999985472</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.07117942135097972</v>
       </c>
       <c r="F101" t="n">
-        <v>8.901587985696567</v>
+        <v>8.901587985691016</v>
       </c>
       <c r="G101" t="n">
-        <v>120.860170457158</v>
+        <v>120.8601704571554</v>
       </c>
       <c r="H101" t="n">
-        <v>7.452402854939098</v>
+        <v>7.452402854932219</v>
       </c>
       <c r="I101" t="n">
         <v>79.48494662297404</v>
@@ -5695,16 +5695,16 @@
         <v>10.4553174329922</v>
       </c>
       <c r="K101" t="n">
-        <v>79.14878518318538</v>
+        <v>79.14878518318314</v>
       </c>
       <c r="L101" t="n">
-        <v>9.019553183121968</v>
+        <v>9.019553183115027</v>
       </c>
       <c r="M101" t="n">
-        <v>0.2738954866173915</v>
+        <v>0.273895486617762</v>
       </c>
       <c r="N101" t="n">
-        <v>0.7131138688751973</v>
+        <v>0.7131138688788659</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0002922999999981357</v>
+        <v>0.0001896000000023434</v>
       </c>
     </row>
   </sheetData>
